--- a/data/kgSAOq9Rt6w.xlsx
+++ b/data/kgSAOq9Rt6w.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -593,24 +593,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>デイトレードや板の読み方等、実際にトレードしつつのテスタさんの説明がとてもわかりやすかったです。
-中長期向けの決算書の読み方も解説してほしい！</t>
+          <t>テスタさんのトレード見れるとかガチの神回ですわ…ありがとう松井証券</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>you you</t>
+          <t>am i</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ugwr_6hFXOzQp4Qu-7t4AaABAg</t>
+          <t>UgzpdDsXGyvwWzFPl_B4AaABAg</t>
         </is>
       </c>
     </row>
@@ -620,23 +619,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>この5人のメンバーが本当に面白い🤣完成度高すぎるお笑い番組❤️</t>
+          <t>デイトレードや板の読み方等、実際にトレードしつつのテスタさんの説明がとてもわかりやすかったです。
+中長期向けの決算書の読み方も解説してほしい！</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>merry merry</t>
+          <t>you you</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ugx44HD4BEaAuaEn-gZ4AaABAg</t>
+          <t>Ugwr_6hFXOzQp4Qu-7t4AaABAg</t>
         </is>
       </c>
     </row>
@@ -646,23 +646,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>テスタさんのトレード見れるとかガチの神回ですわ…ありがとう松井証券</t>
+          <t>これはすごい動画。場中にテスタさんを連れてきて実際に取引を見せるなんて、松井証券もすごいことするなぁ。でも、このメンバーだからこそテスタさんもOKしたのだろうな。またやってほしい。</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>am i</t>
+          <t>tanakanakata</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UgzpdDsXGyvwWzFPl_B4AaABAg</t>
+          <t>UgxQ0Ty8Fu49ol669Hp4AaABAg</t>
         </is>
       </c>
     </row>
@@ -672,23 +672,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>このシリーズ続いてほしい！もっと見たい^_^</t>
+          <t>この5人のメンバーが本当に面白い🤣完成度高すぎるお笑い番組❤️</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Good akan</t>
+          <t>merry merry</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UgxJ14snL-U3q6H8wQJ4AaABAg</t>
+          <t>Ugx44HD4BEaAuaEn-gZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -698,104 +698,105 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>神回！
+テスタさんのガチトレード拝見できてめちゃくちゃ嬉しいです！！
+ありがとうございます！！</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>T K</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>UgyRBa_FwV7orIYvG854AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>テスタくんのトレード見れるのは奇跡の動画…!!</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>あおむし</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>UgxyZjvhKRzCBseEa4F4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>このシリーズ続いてほしい！もっと見たい^_^</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>61</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Good akan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>UgxJ14snL-U3q6H8wQJ4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>デイトレードはやりませんが
 どこかでこの考え方が活かせるかもしれません。
 こういう実践編はほかにはなかなかないのでよい企画と思いました！</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>7</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>tanaka tarou</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Ugz0MIRQqEKZnGfWEtd4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>めっちゃ面白い。BGMにファミコンサウンドつかってるのもセンスあるし
-テスタさんと芸人の絡みも面白い。続いてほしーーーーーーい！</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>佐々木ゆう子</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Ugw09vYxbdjFhcdNMbp4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>この神回が出たことによって投資詐欺が減ったことを、俺は確信してる。ありがとうございます。テスタさん</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ryosuke Shimoda</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Ugw0n_E1yuRCwSctzXd4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>テスタ君のトレードを少しでも見れたのは貴重！自分のチャンネルで場中にLIVEとかやればいいのに。</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>週末社長ゆず [未来の車を開発中]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>UgxFz2lWTg74spf5jQR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -805,23 +806,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>テスタ程腕利きのプロトレーダーでもこうやって負けることもあるんだから、逆にやる気が出てきた！これはいい動画。</t>
+          <t>神回であることには間違いないし、テスタさんにあこがれてデイトレ始める人真似してめちゃくちゃ儲かる人が出てくる一方で全財産なくす人や借金する人も出てきそう。</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>リコリス</t>
+          <t>DF TS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UgzL_-mZGKR1uUE8axJ4AaABAg</t>
+          <t>UgxcfxW68lgMYFHI_R94AaABAg</t>
         </is>
       </c>
     </row>
@@ -831,23 +832,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>テスタくんのトレード見れるのは奇跡の動画…!!</t>
+          <t>テスタ程腕利きのプロトレーダーでもこうやって負けることもあるんだから、逆にやる気が出てきた！これはいい動画。</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>あおむし</t>
+          <t>リコリス</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UgxyZjvhKRzCBseEa4F4AaABAg</t>
+          <t>UgzL_-mZGKR1uUE8axJ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -857,23 +858,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>これはすごい動画。場中にテスタさんを連れてきて実際に取引を見せるなんて、松井証券もすごいことするなぁ。でも、このメンバーだからこそテスタさんもOKしたのだろうな。またやってほしい。</t>
+          <t>めっちゃ面白い。BGMにファミコンサウンドつかってるのもセンスあるし
+テスタさんと芸人の絡みも面白い。続いてほしーーーーーーい！</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>tanakanakata</t>
+          <t>佐々木ゆう子</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UgxQ0Ty8Fu49ol669Hp4AaABAg</t>
+          <t>Ugw09vYxbdjFhcdNMbp4AaABAg</t>
         </is>
       </c>
     </row>
@@ -883,53 +885,51 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>この神回が出たことによって投資詐欺が減ったことを、俺は確信してる。ありがとうございます。テスタさん</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ryosuke Shimoda</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ugw0n_E1yuRCwSctzXd4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>これを見てわかるのは、
 テスタさんは、チャートをみて値動きある程度読み取っている。
 期待値の高いところで、常にトレードしてるとうかがえる。</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>将大 沖野</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>UgzVf0kqNafscXGhcSF4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>神回！
-テスタさんのガチトレード拝見できてめちゃくちゃ嬉しいです！！
-ありがとうございます！！</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>57</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>T K</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>UgyRBa_FwV7orIYvG854AaABAg</t>
         </is>
       </c>
     </row>
@@ -939,23 +939,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>神回であることには間違いないし、テスタさんにあこがれてデイトレ始める人真似してめちゃくちゃ儲かる人が出てくる一方で全財産なくす人や借金する人も出てきそう。</t>
+          <t>テスタ君のトレードを少しでも見れたのは貴重！自分のチャンネルで場中にLIVEとかやればいいのに。</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DF TS</t>
+          <t>週末社長ゆず [未来の車を開発中]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UgxcfxW68lgMYFHI_R94AaABAg</t>
+          <t>UgxFz2lWTg74spf5jQR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -965,24 +965,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ええええ、やめないでよー
-見てるだけでも本当に楽しいのにー</t>
+          <t>こういう動画もっとこれからもたくさん出していただきたいです。</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>T K</t>
+          <t>s sazaby</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ugwao5xyuurTSEPnLrx4AaABAg</t>
+          <t>UgzDsUyuyfACykOIwC54AaABAg</t>
         </is>
       </c>
     </row>
@@ -992,23 +991,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>え？再開したと思ったら次回終わりなの？もっと続けてほしい。楽しく学べるしこのメンバー最高です。</t>
+          <t>佐田さん、マヂカルラブリーさんのお二人、テスタさんのコンビ、本当にシリーズ化してください！お願いします！</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ma</t>
+          <t>かざぐるま</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UgwTUvo7WJBCgjlsOCx4AaABAg</t>
+          <t>UgyegdXwhvbtk4Pgsy94AaABAg</t>
         </is>
       </c>
     </row>
@@ -1018,23 +1017,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>こういう動画もっとこれからもたくさん出していただきたいです。</t>
+          <t>ええええ、やめないでよー
+見てるだけでも本当に楽しいのにー</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>s sazaby</t>
+          <t>P K</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UgzDsUyuyfACykOIwC54AaABAg</t>
+          <t>Ugwao5xyuurTSEPnLrx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>テスタさんの話は、３回ぐらい見ると理解できます。</t>
+          <t>え？再開したと思ったら次回終わりなの？もっと続けてほしい。楽しく学べるしこのメンバー最高です。</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>小林和子</t>
+          <t>ma</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ugwv1BFU78WL2TRM7qh4AaABAg</t>
+          <t>UgwTUvo7WJBCgjlsOCx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>具体例見れて感覚は掴めそうな番組。</t>
+          <t>テスタさんの話は、３回ぐらい見ると理解できます。</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>小林和子</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UgxHuHxAdWNOe20Ro294AaABAg</t>
+          <t>Ugwv1BFU78WL2TRM7qh4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1096,24 +1096,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>このシリーズ大好きです❤️
-出演者さん全員大好き！</t>
+          <t>テスタ君いつもの何千万円ものトレード投げ打ってまでも、バーベルコントしに来る男気かっこよすぎだろう。。。
+松井証券さんありがとう😭</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>とがちゅわん</t>
+          <t>salada</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ugxr0VZlD99BaFqrpf14AaABAg</t>
+          <t>Ugwwh2IHsuETUiNSU3Z4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1123,23 +1123,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>この貴重なことをタダで知れるのもYouTubeの良さ</t>
+          <t>郵船の前場の取引、テスタ神でもあぁいうことが起こるんだと、勇気づけられました･ﾟ･｡(ﾉД`)･ﾟ･｡</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ジャック・ニコルソン</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ugwe-lO_4iW2u2t2CCp4AaABAg</t>
+          <t>UgyHNHqWwcVS9eS7Zpl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1149,23 +1149,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>佐田さん、マヂカルラブリーさんのお二人、テスタさんのコンビ、本当にシリーズ化してください！お願いします！</t>
+          <t>このシリーズ大好きです❤️
+出演者さん全員大好き！</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>かざぐるま</t>
+          <t>とがちゅわん</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UgyegdXwhvbtk4Pgsy94AaABAg</t>
+          <t>Ugxr0VZlD99BaFqrpf14AaABAg</t>
         </is>
       </c>
     </row>
@@ -1175,23 +1176,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>郵船の前場の取引、テスタ神でもあぁいうことが起こるんだと、勇気づけられました･ﾟ･｡(ﾉД`)･ﾟ･｡</t>
+          <t>具体例見れて感覚は掴めそうな番組。</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UgyHNHqWwcVS9eS7Zpl4AaABAg</t>
+          <t>UgxHuHxAdWNOe20Ro294AaABAg</t>
         </is>
       </c>
     </row>
@@ -1201,24 +1202,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>テスタさん、金銭感覚は普通だから面白いw
-今のリスク許容度は桁違いだけど、投資家スタート時の原資は1000万も無かった訳だから夢あるね。</t>
+          <t>この貴重なことをタダで知れるのもYouTubeの良さ</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>YK</t>
+          <t>ジャック・ニコルソン</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UgwGrZJbSZP7KLYbiEZ4AaABAg</t>
+          <t>Ugwe-lO_4iW2u2t2CCp4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1228,23 +1228,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>何度見ても勉強になります。ありがとうございます。</t>
+          <t>今回は貴重な回！！＆面白かったー！</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ぶっちゃけ創価チャンネル</t>
+          <t>AVANTE Big</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ugwwn0bo9c5KSvbUtNp4AaABAg</t>
+          <t>Ugzwu0G_aeyayjxT5gd4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1254,23 +1254,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>テスタさんとの絡みがめちゃくちゃ面白い🤣</t>
+          <t>このシリーズ続けて下さい。
+次回は前場のもう少し激しい時に。</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oki nawa</t>
+          <t>ta fu</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UgxTTLuniB7E2Al2byx4AaABAg</t>
+          <t>Ugx3-Xkxk8CJRCDB15x4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1280,8 +1281,8 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>テスタ氏のトレード見られるのすごいですね！
-次回が最終回って早すぎます…！マヂラブの予定おさえるのが難しいのもあると思いますがまた次シーズン期待してます🥰</t>
+          <t>神回ですね！！！
+とても勉強になりました！</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1292,12 +1293,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ぽっぽ</t>
+          <t>投資家テスタさん切り抜きまとめ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UgyfmQ1C7rxltRjuNM94AaABAg</t>
+          <t>UgxstxxY9bIQfNYwm_d4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1307,24 +1308,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>このシリーズ続けて下さい。
-次回は前場のもう少し激しい時に。</t>
+          <t>テスタさんとの絡みがめちゃくちゃ面白い🤣</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ta fu</t>
+          <t>Oki nawa</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ugx3-Xkxk8CJRCDB15x4AaABAg</t>
+          <t>UgxTTLuniB7E2Al2byx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1334,24 +1334,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>テスタ君いつもの何千万円ものトレード投げ打ってまでも、バーベルコントしに来る男気かっこよすぎだろう。。。
-松井証券さんありがとう😭</t>
+          <t>何度見ても勉強になります。ありがとうございます。</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>salada</t>
+          <t>ぶっちゃけ創価チャンネル</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ugwwh2IHsuETUiNSU3Z4AaABAg</t>
+          <t>Ugwwn0bo9c5KSvbUtNp4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1361,24 +1360,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>神回ですね！！！
-とても勉強になりました！</t>
+          <t>テスタさん、金銭感覚は普通だから面白いw
+今のリスク許容度は桁違いだけど、投資家スタート時の原資は1000万も無かった訳だから夢あるね。</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>投資家テスタさん切り抜きまとめ</t>
+          <t>YK</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UgxstxxY9bIQfNYwm_d4AaABAg</t>
+          <t>UgwGrZJbSZP7KLYbiEZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1388,23 +1387,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>今回は貴重な回！！＆面白かったー！</t>
+          <t>この4人＋武藤先生で目指せ地上波</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AVANTE Big</t>
+          <t>山田太郎</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ugzwu0G_aeyayjxT5gd4AaABAg</t>
+          <t>UgweTN5flpzip_Kvp8F4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1465,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>前のシリーズ見て口座開設しました。第２シリーズも楽しく見ています。今後も頑張ってください！</t>
+          <t>相変わらず勉強になりますね。ありがとうございます。</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1477,12 +1476,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>爺と刑事</t>
+          <t>ぶっちゃけ創価チャンネル</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UgwvTcPk4w5kNW1cG7t4AaABAg</t>
+          <t>Ugz53yAzWS-pHg0lxbV4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1492,11 +1491,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>相変わらず勉強になりますね。ありがとうございます。</t>
+          <t>勉強になります。ありがとうございます。</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1508,7 +1507,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ugz53yAzWS-pHg0lxbV4AaABAg</t>
+          <t>Ugw1ai79VmTEt8TB1up4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1518,23 +1517,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>この4人＋武藤先生で目指せ地上波</t>
+          <t>神回！テスタさんの取引もっと見たいです！</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>山田太郎</t>
+          <t>as</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UgweTN5flpzip_Kvp8F4AaABAg</t>
+          <t>UgwAqyGL7Gfjd7quW7h4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1544,23 +1543,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>いつも面白く勉強もできます。</t>
+          <t>テスタさんの説明わかりやすかったです。このコーナーめちゃくちゃ楽しみにしてます！</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>かみやっち青黒</t>
+          <t>ぽっちー</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ugy1lSLli8cU8vNTj6J4AaABAg</t>
+          <t>UgwUd53u6Un2v7EJdVF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1597,23 +1596,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>テスタさんの説明わかりやすかったです。このコーナーめちゃくちゃ楽しみにしてます！</t>
+          <t>前のシリーズ見て口座開設しました。第２シリーズも楽しく見ています。今後も頑張ってください！</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ぽっちー</t>
+          <t>爺と刑事</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UgwUd53u6Un2v7EJdVF4AaABAg</t>
+          <t>UgwvTcPk4w5kNW1cG7t4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1623,23 +1622,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>勉強になります。ありがとうございます。</t>
+          <t>トレードし始めるとテスタさんの喋る速度と顔つきが変わるのがカッコイイ。</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ぶっちゃけ創価チャンネル</t>
+          <t>Shinya Kaneko</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ugw1ai79VmTEt8TB1up4AaABAg</t>
+          <t>UgxrwFFW24HlzRho9kB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1649,23 +1648,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>インジ使わないのはとってもシンプルでやり易いかも知れないけど、シンプルだからこそ、そこまで行くのが一番難しいんよね。凄いな〜</t>
+          <t>いつも面白く勉強もできます。</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>た あ</t>
+          <t>かみやっち青黒</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UgyLI4hFSQ_W0qgLJ954AaABAg</t>
+          <t>Ugy1lSLli8cU8vNTj6J4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1675,23 +1674,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>トレードし始めるとテスタさんの喋る速度と顔つきが変わるのがカッコイイ。</t>
+          <t>動画ありがとうございます！
+スゴク勉強になります^^</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Shinya Kaneko</t>
+          <t>ガクさん・デイトレーダー</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UgxrwFFW24HlzRho9kB4AaABAg</t>
+          <t>UgxCBlPEZYyZ-UcLnG54AaABAg</t>
         </is>
       </c>
     </row>
@@ -1700,6 +1700,58 @@
         <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
+        <is>
+          <t>次回最終回！？待ってくれよーー！永久に続けてくれ…</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>源頼光</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Ugw4LUH_jvR3Rs8Sv2p4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>インジ使わないのはとってもシンプルでやり易いかも知れないけど、シンプルだからこそ、そこまで行くのが一番難しいんよね。凄いな〜</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>た あ</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>UgyLI4hFSQ_W0qgLJ954AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>このメンタルと手法の固定化が
 月、年で見たら余裕でプラスになるんやろーな。わかってても出来ないのが
@@ -1707,127 +1759,75 @@
 BNF氏もずっとシンプル手法貫いてるみたいですね。貴重な動画ありがとうございます</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>蓑田渉</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>UgzvMgHIsU8sVHeTlON4AaABAg</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>「学べるラブリー」参考になりました。
 ありがとうございます。継続のご検討をよろしくお願いします。</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C52" t="n">
         <v>2</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>T ISHIGURO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Ugw5IjxXlurWatNDvQ54AaABAg</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>投資で動かしてる種銭と
 食事で使う金が
 全然違うのは良くわかるｗ</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C53" t="n">
         <v>14</v>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>- NJMSTR</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>UgzGwH6gCS-Q8SpB5dB4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>神回！テスタさんの取引もっと見たいです！</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>21</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>UgwAqyGL7Gfjd7quW7h4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>かなり勉強になる貴重な動画でした!</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>投資家テスタさん切り抜きまとめ</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Ugx42tE8Gi8EieBMb314AaABAg</t>
         </is>
       </c>
     </row>
@@ -1837,23 +1837,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>次回最終回！？待ってくれよーー！永久に続けてくれ…</t>
+          <t>かなり勉強になる貴重な動画でした!</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>源頼光</t>
+          <t>投資家テスタさん切り抜きまとめ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ugw4LUH_jvR3Rs8Sv2p4AaABAg</t>
+          <t>Ugx42tE8Gi8EieBMb314AaABAg</t>
         </is>
       </c>
     </row>
@@ -1890,24 +1890,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>動画ありがとうございます！
-スゴク勉強になります^^</t>
+          <t>今年の2月に始めて、今月初めて1000万円利益でました。テスタくんを目標にこれからも頑張ります。
+いい刺激をありがとうございます。</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ガクさん・デイトレーダー</t>
+          <t>G U</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>UgxCBlPEZYyZ-UcLnG54AaABAg</t>
+          <t>UgztOgdYb3WStV7p-Bt4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1917,23 +1917,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>今度はもっとテクニカルを使って機械的にトレードする方とかを呼ぶのもいいかもね</t>
+          <t>これは、ホントのホントに、ホントの神回‼
+ねぇ・・続けてよ～！</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>高波</t>
+          <t>West Valley</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UgyYa_fMmJS1iba2pYh4AaABAg</t>
+          <t>UgxUgkUF8KbXCYALgdF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1943,24 +1944,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>これは、ホントのホントに、ホントの神回‼
-ねぇ・・続けてよ～！</t>
+          <t>テスタ君に一般人と同じ10万とかの取引でやって欲しい</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>West Valley</t>
+          <t>C Sa</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UgxUgkUF8KbXCYALgdF4AaABAg</t>
+          <t>UgywpdGSn_umzrNZsTR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -1970,23 +1970,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>テスタさんのトレード貴重でしたーあざっす！</t>
+          <t>テスタさんほんと好き！！</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>haruzox</t>
+          <t>E NA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>UgzmAKteCRgeS2j0Y494AaABAg</t>
+          <t>Ugz-c7QpbCN24gjkGcB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2024,24 +2024,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>今年の2月に始めて、今月初めて1000万円利益でました。テスタくんを目標にこれからも頑張ります。
-いい刺激をありがとうございます。</t>
+          <t>人生変える神回。</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>G U</t>
+          <t>rieko</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UgztOgdYb3WStV7p-Bt4AaABAg</t>
+          <t>Ugykz7Khi9FqXVtXoP54AaABAg</t>
         </is>
       </c>
     </row>
@@ -2051,23 +2050,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>人生変える神回。</t>
+          <t>神回すぎるだろｗ</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>rieko</t>
+          <t>デカ兄さん</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ugykz7Khi9FqXVtXoP54AaABAg</t>
+          <t>UgxSlZMQXyocY1j45Sd4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2077,23 +2076,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>テスタ神の取引みれるねは凄い。</t>
+          <t>テスタさんのトレード貴重でしたーあざっす！</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mr PoPo</t>
+          <t>haruzox</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UgxE4eCGP2an0AR16_p4AaABAg</t>
+          <t>UgzmAKteCRgeS2j0Y494AaABAg</t>
         </is>
       </c>
     </row>
@@ -2103,23 +2102,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>テスタ君に一般人と同じ10万とかの取引でやって欲しい</t>
+          <t>テスタくんシリーズほんとすこ</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>C Sa</t>
+          <t>Squall 2017</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UgywpdGSn_umzrNZsTR4AaABAg</t>
+          <t>Ugx9RCEMeswAFwYZa-14AaABAg</t>
         </is>
       </c>
     </row>
@@ -2129,23 +2128,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>テスタさんほんと好き！！</t>
+          <t>テスタ神の取引みれるねは凄い。</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>E NA</t>
+          <t>Mr PoPo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ugz-c7QpbCN24gjkGcB4AaABAg</t>
+          <t>UgxE4eCGP2an0AR16_p4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2155,23 +2154,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>参考になるなぁ</t>
+          <t>実際のテスタさんのスキャはこんなものでなく、職人技のはず✨</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>みゆりxxx。</t>
+          <t>miracle mint</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ugyc_CyLTX6A4xVwP-F4AaABAg</t>
+          <t>UgzGSZGdHTQydmHdq8l4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2207,23 +2206,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>有料（安価希望）でもいいので続けてほしい</t>
+          <t>村上さんがテスタくんち行ったら焼酎の3Mゴロゴロ転がってた話思い出して笑った
+ていうか次最終回なのか 寂しい</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>じゃじゃファ</t>
+          <t>asdfgh JKL</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UgxrT6lMuiJPQJVfqdx4AaABAg</t>
+          <t>UgxXn4IyheSFz42C2xd4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2233,23 +2233,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>テスタくんシリーズほんとすこ</t>
+          <t>額が凄過ぎるけど、楽しく観ることができました。</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Squall 2017</t>
+          <t>shinsanfit シンサンフィット</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ugx9RCEMeswAFwYZa-14AaABAg</t>
+          <t>UgwNS51wNsRnvrF2LXl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2259,23 +2259,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>この番組面白い！</t>
+          <t>初めてこのチャンネル見て、めっちゃおもろい！おもたら、まさかの次回最終回。笑</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>H YS</t>
+          <t>エンジンエンジン</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UgwHyAHGvOjtoLE0QAx4AaABAg</t>
+          <t>UgyiWZcCNEuTJ7ZpHO14AaABAg</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>松井証券口座持ってますが、信用取引の画面操作方法などもっと初心者向けに詳しく教えて欲しいです💖</t>
+          <t>今度はもっとテクニカルを使って機械的にトレードする方とかを呼ぶのもいいかもね</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>merry merry</t>
+          <t>高波</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UgzLKGOQJ4UNLIF9wtt4AaABAg</t>
+          <t>UgyYa_fMmJS1iba2pYh4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2311,23 +2311,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>実際のテスタさんのスキャはこんなものでなく、職人技のはず✨</t>
+          <t>この番組面白い！</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>miracle mint</t>
+          <t>H YS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>UgzGSZGdHTQydmHdq8l4AaABAg</t>
+          <t>UgwHyAHGvOjtoLE0QAx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2337,23 +2337,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>額が凄過ぎるけど、楽しく観ることができました。</t>
+          <t>参考になるなぁ</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>shinsanfit シンサンフィット</t>
+          <t>みゆりxxx。</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UgwNS51wNsRnvrF2LXl4AaABAg</t>
+          <t>Ugyc_CyLTX6A4xVwP-F4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2363,23 +2363,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>テスタさんの買う株数多すぎて、株価に影響与えてるよね笑</t>
+          <t>有料（安価希望）でもいいので続けてほしい</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>sho</t>
+          <t>じゃじゃファ</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>UgwnsjghDnsBCkLNNXB4AaABAg</t>
+          <t>UgxrT6lMuiJPQJVfqdx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2389,23 +2389,23 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>初めてこのチャンネル見て、めっちゃおもろい！おもたら、まさかの次回最終回。笑</t>
+          <t>貴重な動画ですね！</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>エンジンエンジン</t>
+          <t>ナオタロウTV</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UgyiWZcCNEuTJ7ZpHO14AaABAg</t>
+          <t>UgwC5llG6O55fN0hVoB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2415,23 +2415,23 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>神回すぎるだろｗ</t>
+          <t>地味に50億トレーダーのin out見れるとかかなりレアじゃね</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>デカ兄さん</t>
+          <t>//N</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>UgxSlZMQXyocY1j45Sd4AaABAg</t>
+          <t>Ugx4F5MFHjKBBUI5mol4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2441,23 +2441,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>貴重な動画ですね！</t>
+          <t>テスタさんの買う株数多すぎて、株価に影響与えてるよね笑</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ナオタロウTV</t>
+          <t>sho</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UgwC5llG6O55fN0hVoB4AaABAg</t>
+          <t>UgwnsjghDnsBCkLNNXB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2467,24 +2467,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>テスタきた、テスタ来た、めっちゃ受けです。
-ホールドじゃなく、そこ抜けたら、損切が大事だよって、最後アドバイスしていたのがやっぱ印象的♡</t>
+          <t>ネクソン買うのセンス良すぎ。
+さすが2冠王。</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>w m</t>
+          <t>コアラマン</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UgyzOjjwYwO37fBalJ54AaABAg</t>
+          <t>UgzKweqavv6t6l5f6ph4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2494,24 +2494,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>はじめまして！このシリーズ大ファンです😂
-続けてください❗️</t>
+          <t>テスタ氏のトレード見られるのすごいですね！
+次回が最終回って早すぎます…！マヂラブの予定おさえるのが難しいのもあると思いますがまた次シーズン期待してます🥰</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ペコ</t>
+          <t>ぽっぽ</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>UgyVUin0JxM169ysge54AaABAg</t>
+          <t>UgyfmQ1C7rxltRjuNM94AaABAg</t>
         </is>
       </c>
     </row>
@@ -2520,112 +2520,6 @@
         <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>村上さんがテスタくんち行ったら焼酎の3Mゴロゴロ転がってた話思い出して笑った
-ていうか次最終回なのか 寂しい</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>26</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>asdfgh JKL</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>UgxXn4IyheSFz42C2xd4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>神回の予感( ˇωˇ )</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>イッチーの暇潰し</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>UgwSm7vY4CyW4Q9WyMd4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ネクソン買うのセンス良すぎ。
-さすが2冠王。</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>コアラマン</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>UgzKweqavv6t6l5f6ph4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>地味に50億トレーダーのin out見れるとかかなりレアじゃね</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>//N</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Ugx4F5MFHjKBBUI5mol4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
         <is>
           <t>取引になれていないものにとっては、とても参考になりました。
 詳しいテスタさんに対して、入門のマジカルミライさんの疑問が本当に参考になりました。
@@ -2633,20 +2527,127 @@
 次回、最終回もとても残念です。</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>おれんじオレンジ</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>UgwP3Ia-WKDyW0uz37l4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>テスタきた、テスタ来た、めっちゃ受けです。
+ホールドじゃなく、そこ抜けたら、損切が大事だよって、最後アドバイスしていたのがやっぱ印象的♡</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>w m</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>UgyzOjjwYwO37fBalJ54AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>テスタくんは多分、儲けたリターンをお金だと感じていないんじゃないかな？
+凄いゲーマーが、ひたすらハイスコアを目指してるみたいな感じかも？ 📈</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>25</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Y Sekiai</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>UgyC6q9CIuXRH6moA-54AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>9:46
+このくだりほんと好きw</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>とみー1985</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>UgyvH8Zp8r_H9_nE0ct4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>これはおっもしろい。ちゃんとした理由で買って売って失敗してるから次につながるんだね。</t>
+        </is>
+      </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>おれんじオレンジ</t>
+          <t>mi no</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>UgwP3Ia-WKDyW0uz37l4AaABAg</t>
+          <t>UgzpUeYZE35ZUKWIvMR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2656,23 +2657,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>この動画のおかげで株を始めたまである</t>
+          <t>神回の予感( ˇωˇ )</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>おーた</t>
+          <t>イッチーの暇潰し</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>UgwPJ8qu_PTPN_Ip73l4AaABAg</t>
+          <t>UgwSm7vY4CyW4Q9WyMd4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2682,24 +2683,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>9:46
-このくだりほんと好きw</t>
+          <t>テスタさんぐらいの資産になると、買いたくても買えないし、売りたくても売れないからデイトレは向いてないってことですね。</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>とみー1985</t>
+          <t>森野クマ</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UgyvH8Zp8r_H9_nE0ct4AaABAg</t>
+          <t>UgzGWXSHeZKgkZUvCRF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>これが全てではないだろうけど、上手い人ほどやっぱりシンプルかつルールがしっかりしているから余計な情報が無いなと</t>
+          <t>松井証券口座持ってますが、信用取引の画面操作方法などもっと初心者向けに詳しく教えて欲しいです💖</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>s t</t>
+          <t>merry merry</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ugxi3y8EM5z_NLDUUdd4AaABAg</t>
+          <t>UgzLKGOQJ4UNLIF9wtt4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2735,23 +2735,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>これはおっもしろい。ちゃんとした理由で買って売って失敗してるから次につながるんだね。</t>
+          <t>テスタさんは資産が増えてスキャが無理に成ったので、スイングに移行したからスキャは難しいんだろうな。
+スイングの時に使う能力とスキャの時とは別物ってTwitterでも言ってたけど、番組の為に無理をしたのでしょう。</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>mi no</t>
+          <t>TheMYTUBE7</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UgzpUeYZE35ZUKWIvMR4AaABAg</t>
+          <t>UgwaUEwbjzulAQKvuml4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2762,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>こうして1ティックの動きを大切にしている投資家を見ると、ほんと高額な手数料取る対面証券って経済の癌だと感じる</t>
+          <t>やっぱり資金が増えるほど入れ物がキツくなってくるから、長期にならざるを得ないんだな。</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2772,12 +2773,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>アパラチア山脈</t>
+          <t>おきてがみ【将棋】</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>UgzfbdDBGomJgRkGhcZ4AaABAg</t>
+          <t>UgwEQ_vo1DvVfm0tAB14AaABAg</t>
         </is>
       </c>
     </row>
@@ -2787,23 +2788,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>テスタ面白い。なかなか言えないよ</t>
+          <t>この動画のおかげで株を始めたまである</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ゆーすけ</t>
+          <t>おーた</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>UgxYgHhnnBL8tKCZKEV4AaABAg</t>
+          <t>UgwPJ8qu_PTPN_Ip73l4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2813,24 +2814,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>テスタさんは資産が増えてスキャが無理に成ったので、スイングに移行したからスキャは難しいんだろうな。
-スイングの時に使う能力とスキャの時とは別物ってTwitterでも言ってたけど、番組の為に無理をしたのでしょう。</t>
+          <t>面白かったです☺️笑</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TheMYTUBE7</t>
+          <t>まるめがね / 受験・就活 応援チャンネル</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UgwaUEwbjzulAQKvuml4AaABAg</t>
+          <t>UgySACksJFmNguawfvF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2840,23 +2840,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>面白かったです☺️笑</t>
+          <t>新城のファンより、面白いですよ。毎回楽しみ笑笑</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>まるめがね / 受験・就活 応援チャンネル</t>
+          <t>tooyama eishi</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UgySACksJFmNguawfvF4AaABAg</t>
+          <t>UgwvTqldONNGcpyRR4N4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2866,23 +2866,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>やっぱり資金が増えるほど入れ物がキツくなってくるから、長期にならざるを得ないんだな。</t>
+          <t>デイトレ実践編の続編頼む</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>おきてがみ【将棋】</t>
+          <t>プロテイン飲みます</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>UgwEQ_vo1DvVfm0tAB14AaABAg</t>
+          <t>Ugxd_JdXnOKkTTLI4SB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>新城のファンより、面白いですよ。毎回楽しみ笑笑</t>
+          <t>これが全てではないだろうけど、上手い人ほどやっぱりシンプルかつルールがしっかりしているから余計な情報が無いなと</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2929,12 +2929,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>tooyama eishi</t>
+          <t>s t</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>UgwvTqldONNGcpyRR4N4AaABAg</t>
+          <t>Ugxi3y8EM5z_NLDUUdd4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2944,23 +2944,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>テスタさんぐらいの資産になると、買いたくても買えないし、売りたくても売れないからデイトレは向いてないってことですね。</t>
+          <t>めっちゃ良い企画やん✨✨🌈
+もっとやってぇ🌈</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>森野クマ</t>
+          <t>aaaggg</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UgzGWXSHeZKgkZUvCRF4AaABAg</t>
+          <t>Ugwk1Jk7A_Z5_pFM7Q94AaABAg</t>
         </is>
       </c>
     </row>
@@ -2970,23 +2971,23 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>デイトレ実践編の続編頼む</t>
+          <t>自分にはデイトレは難しい…テスタ君みたいに考えて買えないよう。長期でやるよ</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>プロテイン飲みます</t>
+          <t>vel vel</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ugxd_JdXnOKkTTLI4SB4AaABAg</t>
+          <t>UgyG3mCa-pkafQRy1rZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -2996,23 +2997,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>テスタさんの取引に参入する根拠、気になりますね～どういったロジックなのか。</t>
+          <t>9:15　テスタさんでもスキャでみんながよくやる往復ビンタ食らうの何かすごい安心する</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>為替の流儀</t>
+          <t>Orange Sunset</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UgwV_h4ukiydLSXLRsN4AaABAg</t>
+          <t>UgwfZeiwipWCd59QUyh4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3022,24 +3023,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>テスタくんは多分、儲けたリターンをお金だと感じていないんじゃないかな？
-凄いゲーマーが、ひたすらハイスコアを目指してるみたいな感じかも？ 📈</t>
+          <t>テスタさんの取引に参入する根拠、気になりますね～どういったロジックなのか。</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Y Sekiai</t>
+          <t>為替の流儀</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UgyC6q9CIuXRH6moA-54AaABAg</t>
+          <t>UgwV_h4ukiydLSXLRsN4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3049,23 +3049,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>面白いな。テスタさん</t>
+          <t>資金が多すぎるせいで単価が上がってしまうの、神の悩みすぎる</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>jacky nan</t>
+          <t>さるおくん</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>UgydaYggbUd5yRuanrF4AaABAg</t>
+          <t>Ugw8ud-nsyEG1LekTPp4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3075,24 +3075,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>めっちゃ良い企画やん✨✨🌈
-もっとやってぇ🌈</t>
+          <t>テスタ面白い。なかなか言えないよ</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>aaaggg</t>
+          <t>ゆーすけ</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ugwk1Jk7A_Z5_pFM7Q94AaABAg</t>
+          <t>UgxYgHhnnBL8tKCZKEV4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3102,23 +3101,23 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>資金が多すぎるせいで単価が上がってしまうの、神の悩みすぎる</t>
+          <t>次最終回？お願い止めないでください。せめてあと1年続けてほしいです😭</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>さるおくん</t>
+          <t>ジャスミンティー</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ugw8ud-nsyEG1LekTPp4AaABAg</t>
+          <t>Ugz5HJk7D-WhjyKa76R4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3128,23 +3127,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>自分にはデイトレは難しい…テスタ君みたいに考えて買えないよう。長期でやるよ</t>
+          <t>こうして1ティックの動きを大切にしている投資家を見ると、ほんと高額な手数料取る対面証券って経済の癌だと感じる</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>vel vel</t>
+          <t>アパラチア山脈</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UgyG3mCa-pkafQRy1rZ4AaABAg</t>
+          <t>UgzfbdDBGomJgRkGhcZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3154,23 +3153,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>次回は前場で是非テスタさんのデイトレ見たいです！</t>
+          <t>面白いな。テスタさん</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>健太 斉藤</t>
+          <t>jacky nan</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>UgzHVV_Y1JLGRa_zeBV4AaABAg</t>
+          <t>UgydaYggbUd5yRuanrF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3180,23 +3179,23 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>次最終回？お願い止めないでください。せめてあと1年続けてほしいです😭</t>
+          <t>このシリーズは鉄板</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ジャスミンティー</t>
+          <t>Gorilla Oyakata</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ugz5HJk7D-WhjyKa76R4AaABAg</t>
+          <t>UgxTqilsJpU414m-bAl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3205,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>このシリーズは鉄板</t>
+          <t>次回は前場で是非テスタさんのデイトレ見たいです！</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3217,12 +3216,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Gorilla Oyakata</t>
+          <t>健太 斉藤</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>UgxTqilsJpU414m-bAl4AaABAg</t>
+          <t>UgzHVV_Y1JLGRa_zeBV4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3232,24 +3231,23 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>これは貴重‼️
-松井証券さんありがとう😊</t>
+          <t>いやぁおもしろかった</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>たまねぎ夫人</t>
+          <t>上質</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ugz0u1fgR1qKo4ZWSCB4AaABAg</t>
+          <t>Ugydc3DMUXBYauh2hZd4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3285,23 +3283,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>いやぁおもしろかった</t>
+          <t>鰻の7000円は高いw
+めっちゃおもろいんで続編お願いいたします！</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>上質</t>
+          <t>lime R</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ugydc3DMUXBYauh2hZd4AaABAg</t>
+          <t>Ugx4wrKqUzye1oGwfSV4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3311,24 +3310,24 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>鰻の7000円は高いw
-めっちゃおもろいんで続編お願いいたします！</t>
+          <t>佐田さん可愛いなぁ
+声のトーンとかも質問の優しい言い方とか好き</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>lime R</t>
+          <t>やりたいことは全部</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Ugx4wrKqUzye1oGwfSV4AaABAg</t>
+          <t>Ugx03vO0jKOR4vI22B94AaABAg</t>
         </is>
       </c>
     </row>
@@ -3338,23 +3337,24 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>これめちゃくちゃ有難いんだけど、収録は前場にするべきだったよね笑</t>
+          <t>これは貴重‼️
+松井証券さんありがとう😊</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>B・C・U</t>
+          <t>たまねぎ夫人</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>UgzDyZbpF5Z2OsWZxkV4AaABAg</t>
+          <t>Ugz0u1fgR1qKo4ZWSCB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3364,8 +3364,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>佐田さん可愛いなぁ
-声のトーンとかも質問の優しい言い方とか好き</t>
+          <t>最初の寸劇おもろ笑笑</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3376,12 +3375,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>やりたいことは全部</t>
+          <t>H I</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ugx03vO0jKOR4vI22B94AaABAg</t>
+          <t>UgxGg97QIklrBtSb3j14AaABAg</t>
         </is>
       </c>
     </row>
@@ -3391,23 +3390,23 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>最初の寸劇おもろ笑笑</t>
+          <t>これめちゃくちゃ有難いんだけど、収録は前場にするべきだったよね笑</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>H I</t>
+          <t>B・C・U</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>UgxGg97QIklrBtSb3j14AaABAg</t>
+          <t>UgzDyZbpF5Z2OsWZxkV4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3417,23 +3416,23 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>プロもこれだけ負けると分かれば安心できる</t>
+          <t>神が人の作り方を少しだけ教えてくれた感じ</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ラフテルちゃん</t>
+          <t>G. Tana</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ugw9sk6IccsDUDgpbtV4AaABAg</t>
+          <t>UgxeG9_ptKB1s0E2b0J4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3443,23 +3442,24 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>神が人の作り方を少しだけ教えてくれた感じ</t>
+          <t>ネクソンめちゃ上がってるな笑
+ホールド成功！</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>G. Tana</t>
+          <t>ひらフィッシングチャンネル　fishing</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>UgxeG9_ptKB1s0E2b0J4AaABAg</t>
+          <t>Ugz0nZ0ibaR6qHd_sap4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3469,23 +3469,24 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>把握してる銘柄の2/3くらいまでホールドするんだな…</t>
+          <t>テスタくんの家にロケ行って
+前場取引を眺めたい！</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>うなぎAnguilla japonica</t>
+          <t>ペペたま</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>UgxLltOplcwbDLMnE554AaABAg</t>
+          <t>Ugz2qJITxXPd1mBXOqx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3495,183 +3496,182 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>やっぱり学園物はおもしろい.....っです！</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>AIロボ</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Ugys0Y6fWtp0KK7mdbZ4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>はじめまして！このシリーズ大ファンです😂
+続けてください❗️</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>22</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>ペコ</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>UgyVUin0JxM169ysge54AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>プロもこれだけ負けると分かれば安心できる</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ラフテルちゃん</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Ugw9sk6IccsDUDgpbtV4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>把握してる銘柄の2/3くらいまでホールドするんだな…</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>うなぎAnguilla japonica</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>UgxLltOplcwbDLMnE554AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>テスタさん好きだー</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>momo momo</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Ugw4BkyvSf_YO4gU6rJ4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ネクソン持ち続けると儲けてますね。おめでとうございます野田君</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>CL T</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Ugx9Y9n1yImrA-S6Izl4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>ためになるよなぁ
 マジで損切りは大事　
 ネクソンみたいに塩漬けしちゃうのは初心者あるある</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C123" t="n">
         <v>1</v>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>Sa c</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>Ugyxpe24mQ8iNZ7im3p4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>テスタくんの家にロケ行って
-前場取引を眺めたい！</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>ペペたま</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Ugz2qJITxXPd1mBXOqx4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ネクソンめちゃ上がってるな笑
-ホールド成功！</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>4</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>ひらフィッシングチャンネル　fishing</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Ugz0nZ0ibaR6qHd_sap4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>9:15　テスタさんでもスキャでみんながよくやる往復ビンタ食らうの何かすごい安心する</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>61</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Orange Sunset</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>UgwfZeiwipWCd59QUyh4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>テスタさんはえぐすぎなんよ…</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>うわーー!!!</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>UgyUUNsRACO367Z8T6V4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>やっぱり学園物はおもしろい.....っです！</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>6</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>AIロボ</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Ugys0Y6fWtp0KK7mdbZ4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>テスタさん好きだー</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>momo momo</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Ugw4BkyvSf_YO4gU6rJ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3681,23 +3681,23 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ネクソン持ち続けると儲けてますね。おめでとうございます野田君</t>
+          <t>テスタさんはえぐすぎなんよ…</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CL T</t>
+          <t>うわーー!!!</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ugx9Y9n1yImrA-S6Izl4AaABAg</t>
+          <t>UgyUUNsRACO367Z8T6V4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3707,23 +3707,24 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>桃鉄じゃん！のツッコミ最高です</t>
+          <t>おもしろい！
+佐田さんかわいい笑</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>JPN_Morgan</t>
+          <t>ho ko</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>UgzswTNGOac8_jcrd3J4AaABAg</t>
+          <t>UgzcrKPpYPy98lHKuKJ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3733,24 +3734,23 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>おもしろい！
-佐田さんかわいい笑</t>
+          <t>桃鉄じゃん！のツッコミ最高です</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ho ko</t>
+          <t>JPN_Morgan</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>UgzcrKPpYPy98lHKuKJ4AaABAg</t>
+          <t>UgzswTNGOac8_jcrd3J4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3760,27 +3760,23 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>自分が買ってた銘柄出てきたんでなんかすごい親近感が…
-ネクソンは俺もちょっと前に買ってましたわ
-下がりまくってとても言えない額の損切りしました
-郵船でそれ以上儲かったので今もなんとか生きていますが…
-船はなぜか暴落の直前の高値でいつも売り逃げれてますね</t>
+          <t>本気の売買みてぇええええ</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>西園寺忍</t>
+          <t>k 、</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ugwwsq1XwUKtW0eMwgl4AaABAg</t>
+          <t>UgziD0V-oCbioEVqFiZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3790,23 +3786,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>このメンバーで　細々でも　たまにでも　とにかく続けてほしいです</t>
+          <t>自分が買ってた銘柄出てきたんでなんかすごい親近感が…
+ネクソンは俺もちょっと前に買ってましたわ
+下がりまくってとても言えない額の損切りしました
+郵船でそれ以上儲かったので今もなんとか生きていますが…
+船はなぜか暴落の直前の高値でいつも売り逃げれてますね</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>moko popo</t>
+          <t>西園寺忍</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ugzkzwf_-UGz7pWE7il4AaABAg</t>
+          <t>Ugwwsq1XwUKtW0eMwgl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3816,23 +3816,23 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>うわぁ…ありがとうございました😳🔍</t>
+          <t>敬語じゃないのが好き</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ない湯naiiyu</t>
+          <t>ガリ</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>UgyeRol3E-q5fjV2XG94AaABAg</t>
+          <t>UgwWoP_zbdiUqGL3RZp4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3842,23 +3842,23 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>今ネクソン株2088まで上がってるからホールドして正解だったね</t>
+          <t>うわぁ…ありがとうございました😳🔍</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>maimai</t>
+          <t>ない湯naiiyu</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>UgzA2YGCGPlnZF2n_M54AaABAg</t>
+          <t>UgyeRol3E-q5fjV2XG94AaABAg</t>
         </is>
       </c>
     </row>
@@ -3868,23 +3868,23 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>敬語じゃないのが好き</t>
+          <t>今ネクソン株2088まで上がってるからホールドして正解だったね</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ガリ</t>
+          <t>maimai</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>UgwWoP_zbdiUqGL3RZp4AaABAg</t>
+          <t>UgzA2YGCGPlnZF2n_M54AaABAg</t>
         </is>
       </c>
     </row>
@@ -3894,51 +3894,51 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>このメンバーで　細々でも　たまにでも　とにかく続けてほしいです</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>moko popo</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Ugzkzwf_-UGz7pWE7il4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>9:40
 株難しいな〜
 にキュンとした(笑)</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C133" t="n">
         <v>1</v>
       </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>名無しの権兵衛</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>Ugz9NrcH5QELfjJHptV4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>本気の売買みてぇええええ</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>5</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>k 、</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>UgziD0V-oCbioEVqFiZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3948,23 +3948,23 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>面白いー笑</t>
+          <t>野田くん、ホールドで10,22戻ってるからナイスガチホ</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>nao nao</t>
+          <t>あらまな</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>UgzmY0h2OFsWdIiXfhF4AaABAg</t>
+          <t>UgwcfbfAdiqiGEkKGQF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,8 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>12月からつみたてNISAに申し込みできるので、すごい勉強になりました！</t>
+          <t>デイトレのヤツは損失確定だけど保有株は含み損だからあんまり関係無いんだよな。
+ネクソン調べたら結構良いところで買ってるぞ。今ぐらいの時期に手放したとしたらかなりの利益出してるな。</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3985,12 +3986,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ひっか</t>
+          <t>健久保田</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>UgwWs1FnJWiDbQ_cCeZ4AaABAg</t>
+          <t>Ugx8YIxjNuMkRCEVa7x4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4000,7 +4001,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>村上さん、おめでとうございます。</t>
+          <t>面白いー笑</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4011,12 +4012,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>T ISHIGURO</t>
+          <t>nao nao</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>UgwEVUULcfJwT6LN3lJ4AaABAg</t>
+          <t>UgzmY0h2OFsWdIiXfhF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4026,23 +4027,23 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>野田くん、ホールドで10,22戻ってるからナイスガチホ</t>
+          <t>村上さん、おめでとうございます。</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>あらまな</t>
+          <t>T ISHIGURO</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>UgwcfbfAdiqiGEkKGQF4AaABAg</t>
+          <t>UgwEVUULcfJwT6LN3lJ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4052,23 +4053,23 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>マジカルラブリーいいやん</t>
+          <t>12月からつみたてNISAに申し込みできるので、すごい勉強になりました！</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ukkari hatibei</t>
+          <t>ひっか</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Ugx9zZkjlVvWJG8gwLR4AaABAg</t>
+          <t>UgwWs1FnJWiDbQ_cCeZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4105,23 +4106,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>負けてるほうが何故かドヤ感が増す</t>
+          <t>マジカルラブリーいいやん</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>きんきん</t>
+          <t>ukkari hatibei</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>UgyS7QwIgfw2M3_Rwdx4AaABAg</t>
+          <t>Ugx9zZkjlVvWJG8gwLR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4131,23 +4132,23 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>神回！</t>
+          <t>負けてるほうが何故かドヤ感が増す</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>yoshi</t>
+          <t>きんきん</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>UgzfJ85BifWs9xWBAwB4AaABAg</t>
+          <t>UgyS7QwIgfw2M3_Rwdx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4209,24 +4210,24 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>デイトレのヤツは損失確定だけど保有株は含み損だからあんまり関係無いんだよな。
-ネクソン調べたら結構良いところで買ってるぞ。今ぐらいの時期に手放したとしたらかなりの利益出してるな。</t>
+          <t>最高！
+👍</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>健久保田</t>
+          <t>ススクレッソ海道</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Ugx8YIxjNuMkRCEVa7x4AaABAg</t>
+          <t>UgxETrbeNHcHPvu6soR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4236,24 +4237,23 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>最高！
-👍</t>
+          <t>デイトレは初心者がチャート頼りにトレードすると100％負けるよ</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ススクレッソ海道</t>
+          <t>綾鷹</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>UgxETrbeNHcHPvu6soR4AaABAg</t>
+          <t>Ugw_xnDf6a2jRU_wtvF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4263,23 +4263,23 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>日経ミニのDTも見せてください</t>
+          <t>こんなの無料で見れちゃうのか…</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>えこ</t>
+          <t>池田 憲太郎</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Ugw2WXkcLrFAgYEDkPl4AaABAg</t>
+          <t>UgysO5XQcq0agHjNxXZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4315,23 +4315,23 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>こんなの無料で見れちゃうのか…</t>
+          <t>日経ミニのDTも見せてください</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>池田 憲太郎</t>
+          <t>えこ</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>UgysO5XQcq0agHjNxXZ4AaABAg</t>
+          <t>Ugw2WXkcLrFAgYEDkPl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4367,23 +4367,23 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>デイトレは初心者がチャート頼りにトレードすると100％負けるよ</t>
+          <t>神回！</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>綾鷹</t>
+          <t>yoshi</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Ugw_xnDf6a2jRU_wtvF4AaABAg</t>
+          <t>UgzfJ85BifWs9xWBAwB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1000株単位の頃はサルでも勝ててた、いやサル顔の人でも勝ててたけど、100株単位統一されてデイトレーダーは激減したよ。それは証券会社の人がよく知っている筈。</t>
+          <t>次で終わるの悲しいいい</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>sign paper</t>
+          <t>ふなぽん</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ugzh7R2n7DUvfh_wDU94AaABAg</t>
+          <t>Ugw-4hXIDM3f0WvhgnR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4445,23 +4445,23 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>隠れ武藤先生推しマンです</t>
+          <t>作中最強キャラがやっと戦ってくれた</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Manchu Fu</t>
+          <t>Kari Kari</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>UgwbH5nrgboJEu5cpjJ4AaABAg</t>
+          <t>Ugw9R-e1muoBOULpQXd4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4471,23 +4471,23 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>次で終わるの悲しいいい</t>
+          <t>1000株単位の頃はサルでも勝ててた、いやサル顔の人でも勝ててたけど、100株単位統一されてデイトレーダーは激減したよ。それは証券会社の人がよく知っている筈。</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ふなぽん</t>
+          <t>sign paper</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Ugw-4hXIDM3f0WvhgnR4AaABAg</t>
+          <t>Ugzh7R2n7DUvfh_wDU94AaABAg</t>
         </is>
       </c>
     </row>
@@ -4497,155 +4497,155 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>隠れ武藤先生推しマンです</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Manchu Fu</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>UgwbH5nrgboJEu5cpjJ4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>このチャートでネクソン買うのはヤバイ笑</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>kanri kensu</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Ugw8PlMmd0EV5QnNAyp4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>テスタくんのおじいちゃん設定はどこへ行ったんだろうw</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>10</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ペコネン</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Ugzqr1rz13GS-s45QiZ4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>やったー、テスタさんだー！🙌</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Summer Baby</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>UgyWg7tON1NcjRsA8ZV4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>真似すべからず、見てるとただの博打マネーゲーム、悪運ないと終わる。。。</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>tube1 you</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>UgwKyOrdZPtrbeTsJ1t4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>テスタさんのガチトレードがみれるとは！！
 前場の値動きが激しい時が一番集中する話はテスタさんのYouTubeでも話されてましたねー
 https://youtu.be/phh6xQBOCvc</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="inlineStr">
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>投資家テスタchannel 【切り抜き】</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>UgyjbQQy3cly_IRpg0d4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>このチャートでネクソン買うのはヤバイ笑</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>kanri kensu</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Ugw8PlMmd0EV5QnNAyp4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>作中最強キャラがやっと戦ってくれた</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>20</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Kari Kari</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Ugw9R-e1muoBOULpQXd4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>テスタくんのおじいちゃん設定はどこへ行ったんだろうw</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>10</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>ペコネン</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Ugzqr1rz13GS-s45QiZ4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>取り戻せる誤差だから余裕なんだよな</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>kstdu</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Ugwevq_1qmZwJuF-nLB4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>真似すべからず、見てるとただの博打マネーゲーム、悪運ないと終わる。。。</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>tube1 you</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>UgwKyOrdZPtrbeTsJ1t4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4681,23 +4681,23 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>やったー、テスタさんだー！🙌</t>
+          <t>ネクソン買ってるの笑う</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Summer Baby</t>
+          <t>Unko men</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>UgyWg7tON1NcjRsA8ZV4AaABAg</t>
+          <t>UgwQ6mfjfVwM1gFdsIx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4707,23 +4707,23 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Awsome!</t>
+          <t>投資やってるとお金がお金を生むことがわかるから浪費するのがバカらしくなる</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Koi</t>
+          <t>もちもちこ</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>UgyxBIUJHI_m871K0ch4AaABAg</t>
+          <t>Ugw67lVi-aq1mYGsf9d4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,9 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ネクソン買ってるの笑う</t>
+          <t>面白かったけど
+天才の真似してデイトレで儲けようとすると
+普通の人は痛い目見るからね</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -4744,12 +4746,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Unko men</t>
+          <t>FX. baka</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>UgwQ6mfjfVwM1gFdsIx4AaABAg</t>
+          <t>UgyUhlGbadICJbT8xkZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4759,25 +4761,23 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>面白かったけど
-天才の真似してデイトレで儲けようとすると
-普通の人は痛い目見るからね</t>
+          <t>ここまでお金あると自分で板あやつって相場動かせそうだな。</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FX. baka</t>
+          <t>貧乏脱出したい</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>UgyUhlGbadICJbT8xkZ4AaABAg</t>
+          <t>UgyPqmO91AyIw267BVt4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4787,23 +4787,23 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>トレードは良いこと何一つない</t>
+          <t>取り戻せる誤差だから余裕なんだよな</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>田中ヒカル</t>
+          <t>kstdu</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>UgxrGaCiB6Scql80n0p4AaABAg</t>
+          <t>Ugwevq_1qmZwJuF-nLB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4813,23 +4813,23 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>投資やってるとお金がお金を生むことがわかるから浪費するのがバカらしくなる</t>
+          <t>Awsome!</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>もちもちこ</t>
+          <t>Koi</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ugw67lVi-aq1mYGsf9d4AaABAg</t>
+          <t>UgyxBIUJHI_m871K0ch4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4839,23 +4839,23 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ここまでお金あると自分で板あやつって相場動かせそうだな。</t>
+          <t>トレードは良いこと何一つない</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>貧乏脱出したい</t>
+          <t>田中ヒカル</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>UgyPqmO91AyIw267BVt4AaABAg</t>
+          <t>UgxrGaCiB6Scql80n0p4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4917,23 +4917,23 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>初めてYouTube見ながらメモを取った。</t>
+          <t>なんでテスタさんは松井証券をメインで使ってるんだろ</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>mild caster</t>
+          <t>Takayuki K</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>UgzpYpkXLJk3D2cN5tB4AaABAg</t>
+          <t>UgxbiEXUS2UxAnTWT9F4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4969,23 +4969,23 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>M1の賞金額よりでかい金額の負けだからラブリーどう思ってるんだろ</t>
+          <t>鳥貴族は補助金41億円ももらったんだ！コロナ前の営業利益は1,681百万円</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>てら</t>
+          <t>関西輸入ノン大豆</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>UgwXvg8MZn62O8hqaJl4AaABAg</t>
+          <t>UgxO35wCej5o3pIBtox4AaABAg</t>
         </is>
       </c>
     </row>
@@ -4995,23 +4995,23 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>なんでテスタさんは松井証券をメインで使ってるんだろ</t>
+          <t>初めてYouTube見ながらメモを取った。</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Takayuki K</t>
+          <t>mild caster</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>UgxbiEXUS2UxAnTWT9F4AaABAg</t>
+          <t>UgzpYpkXLJk3D2cN5tB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5047,23 +5047,23 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>鳥貴族は補助金41億円ももらったんだ！コロナ前の営業利益は1,681百万円</t>
+          <t>M1の賞金額よりでかい金額の負けだからラブリーどう思ってるんだろ</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>関西輸入ノン大豆</t>
+          <t>てら</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>UgxO35wCej5o3pIBtox4AaABAg</t>
+          <t>UgwXvg8MZn62O8hqaJl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5073,24 +5073,23 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>50億で配当金生活充分出来そうだけど
-それはあんまり興味ないんだろうか</t>
+          <t>これはたしかに桃鉄だわwww</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>独身三十路リーマン</t>
+          <t>あずฅ•ω•ฅ</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>UgzbKRHIbyrSvn2bkWF4AaABAg</t>
+          <t>Ugzn99Mkj4YSt6Qs2Ft4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5100,23 +5099,23 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>おもろい</t>
+          <t>野田さん、下落トレンドで入ってるやん笑笑</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ディスでぃすお</t>
+          <t>Jogger is better than Walker. So I buy shoes.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>UgxTzgnDEcuJ24BrIft4AaABAg</t>
+          <t>UgzWRqlKFgzVHyWft-d4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5126,23 +5125,23 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>これはたしかに桃鉄だわwww</t>
+          <t>テスタくんが出ないと視聴数が伸びない・・・・(笑)</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>あずฅ•ω•ฅ</t>
+          <t>papy channel</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Ugzn99Mkj4YSt6Qs2Ft4AaABAg</t>
+          <t>Ugx6hJfO-av7AAqoXq14AaABAg</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5151,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>野田さん、下落トレンドで入ってるやん笑笑</t>
+          <t>小芝居するテスタ先生が半端ない</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -5163,12 +5162,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Jogger is better than Walker. So I buy shoes.</t>
+          <t>T・T</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>UgzWRqlKFgzVHyWft-d4AaABAg</t>
+          <t>UgwEGpJeMsqS9YxJrnl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5178,23 +5177,23 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>テスタくんが出ないと視聴数が伸びない・・・・(笑)</t>
+          <t>おもろい</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>papy channel</t>
+          <t>ディスでぃすお</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Ugx6hJfO-av7AAqoXq14AaABAg</t>
+          <t>UgxTzgnDEcuJ24BrIft4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5204,23 +5203,23 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>小芝居するテスタ先生が半端ない</t>
+          <t>前場が見たかった</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>T・T</t>
+          <t>猫男爵</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>UgwEGpJeMsqS9YxJrnl4AaABAg</t>
+          <t>UgxfNDa-Rxdjmg7iYJx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5256,23 +5255,24 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>前場が見たかった</t>
+          <t>50億で配当金生活充分出来そうだけど
+それはあんまり興味ないんだろうか</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>猫男爵</t>
+          <t>独身三十路リーマン</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>UgxfNDa-Rxdjmg7iYJx4AaABAg</t>
+          <t>UgzbKRHIbyrSvn2bkWF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5308,24 +5308,24 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>テスタさんの話はすごくありがたかったけど、ゴールデンクロスが～って話しはあんま入れない方がいいんじゃないかなぁ・・・。
-ゴールデンクロスはただの結果論・・・。</t>
+          <t>このYou Tubeに出るのは仕事というより趣味なんだろうな
+本業やったほうが稼げるんだから</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>。 oz</t>
+          <t>etty</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>UgwgD8K2ep_v5RVbam54AaABAg</t>
+          <t>UgzjCRRUJ1_ioAvbNrJ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5335,24 +5335,23 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>このYou Tubeに出るのは仕事というより趣味なんだろうな
-本業やったほうが稼げるんだから</t>
+          <t>プロのデイトレーダーってこんな板とにらめっこしてるのか・・・。まじで別のゲームだな。</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>etty</t>
+          <t>Yukke T</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>UgzjCRRUJ1_ioAvbNrJ4AaABAg</t>
+          <t>Ugz7D1j0saZ3sI4bL394AaABAg</t>
         </is>
       </c>
     </row>
@@ -5362,23 +5361,23 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>金額がすごいけど、現金は３．４％しか保持してないのは投資としてかなりリスキーなやり方だと思うけど。。。</t>
+          <t>ネクソン今日めちゃめちゃ上がってたけど野田さんホールドしてたのかな？</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>urdnju</t>
+          <t>カ</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Ugz039RvJb42cfIl9lB4AaABAg</t>
+          <t>Ugw4Jay-tUUNDEZfNxx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5388,23 +5387,23 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>プロのデイトレーダーってこんな板とにらめっこしてるのか・・・。まじで別のゲームだな。</t>
+          <t>いやあ、リアルうぅうぅぅぅ～</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Yukke T</t>
+          <t>さのすけ</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Ugz7D1j0saZ3sI4bL394AaABAg</t>
+          <t>UgzREXlVw2fefcWTpaF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5413,8 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ネクソン今日めちゃめちゃ上がってたけど野田さんホールドしてたのかな？</t>
+          <t>円の前に万があるか無いかw
+フォーリンナイフの肢をつかみたい👍</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -5425,12 +5425,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>カ</t>
+          <t>みなみ</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Ugw4Jay-tUUNDEZfNxx4AaABAg</t>
+          <t>UgwbdfqHAHafIBTyc8F4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5466,23 +5466,23 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>いやあ、リアルうぅうぅぅぅ～</t>
+          <t>松井証券さん、ナイス　キャスティング。</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>さのすけ</t>
+          <t>coffee iced</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>UgzREXlVw2fefcWTpaF4AaABAg</t>
+          <t>UgywYy0fnF303OS7UQl4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5492,23 +5492,23 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>神</t>
+          <t>金額がすごいけど、現金は３．４％しか保持してないのは投資としてかなりリスキーなやり方だと思うけど。。。</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>K K</t>
+          <t>urdnju</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>UgyM2R0mK2iN0dccW9h4AaABAg</t>
+          <t>Ugz039RvJb42cfIl9lB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5518,23 +5518,23 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>松井証券さん、ナイス　キャスティング。</t>
+          <t>7000円のうなぎ高いの意味わからん　（笑）</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>coffee iced</t>
+          <t>続木護</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>UgywYy0fnF303OS7UQl4AaABAg</t>
+          <t>Ugy5pbgPTPtQUu32QlB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5544,8 +5544,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>円の前に万があるか無いかw
-フォーリンナイフの肢をつかみたい👍</t>
+          <t>一瞬の判断が全てなんだ。こりゃデイトレなんか出来ない</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -5556,12 +5555,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>みなみ</t>
+          <t>SKYJOKER</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>UgwbdfqHAHafIBTyc8F4AaABAg</t>
+          <t>Ugwf-seQjyqzNcGvKNR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5570,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7000円のうなぎ高いの意味わからん　（笑）</t>
+          <t>ネクソン今日戻してる笑笑笑笑</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -5582,12 +5581,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>続木護</t>
+          <t>H R</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Ugy5pbgPTPtQUu32QlB4AaABAg</t>
+          <t>UgxL58lQwVDsLAHvIuV4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5597,23 +5596,23 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>これがリアル</t>
+          <t>神</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>5 Aiy</t>
+          <t>K K</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>UgxmRSq0Tzfcvjl21OZ4AaABAg</t>
+          <t>UgyM2R0mK2iN0dccW9h4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5623,7 +5622,8 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>一瞬の判断が全てなんだ。こりゃデイトレなんか出来ない</t>
+          <t>じゃ俺もデイトレやってみよ！
+って人増やして手数料ゲットだぜ‼︎</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SKYJOKER</t>
+          <t>あまのひろゆき</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ugwf-seQjyqzNcGvKNR4AaABAg</t>
+          <t>Ugx_GxEm8uQZ5ikb78l4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5649,24 +5649,23 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>じゃ俺もデイトレやってみよ！
-って人増やして手数料ゲットだぜ‼︎</t>
+          <t>これがリアル</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>あまのひろゆき</t>
+          <t>5 Aiy</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Ugx_GxEm8uQZ5ikb78l4AaABAg</t>
+          <t>UgxmRSq0Tzfcvjl21OZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5676,23 +5675,23 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>なんていうアプリでやるんですか？</t>
+          <t>もう次で最終回か</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>あめりか</t>
+          <t>Scin</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>UgwmKJg72lkfl8O8On94AaABAg</t>
+          <t>UgwnMHnVL9YgpyF14AZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5702,23 +5701,23 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ネクソン今日戻してる笑笑笑笑</t>
+          <t>友だちにも怖いヤツって居ますからねぇ…株怖い！</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>H R</t>
+          <t>ニャーゴ。</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>UgxL58lQwVDsLAHvIuV4AaABAg</t>
+          <t>UgxmjQmlknzqt-pCCiB4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5728,8 +5727,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>能力はあるのに資金が少ない場合はどうしたらいいですか？(笑)
-投資してみませんか？</t>
+          <t>なんていうアプリでやるんですか？</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -5740,12 +5738,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>chan katokichi</t>
+          <t>あめりか</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>UgwbkpMCL6M6TLmZL2R4AaABAg</t>
+          <t>UgwmKJg72lkfl8O8On94AaABAg</t>
         </is>
       </c>
     </row>
@@ -5755,23 +5753,23 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>もう次で最終回か</t>
+          <t>私が知ってるテスタさんは資産20億円だったのに、いつのまに？</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Scin</t>
+          <t>きたむらゆうじ</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>UgwnMHnVL9YgpyF14AZ4AaABAg</t>
+          <t>Ugyr00IZhQHD-5Pmych4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5781,23 +5779,23 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>友だちにも怖いヤツって居ますからねぇ…株怖い！</t>
+          <t>ちょっと負けたぐらいでビービー言えないな、俺。</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ニャーゴ。</t>
+          <t>あなたが大好きです</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>UgxmjQmlknzqt-pCCiB4AaABAg</t>
+          <t>Ugx2_3LeUZP17WytgMN4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5807,23 +5805,23 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>私が知ってるテスタさんは資産20億円だったのに、いつのまに？</t>
+          <t>ほんまに桃鉄やなwww</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>きたむらゆうじ</t>
+          <t>Kou Na</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Ugyr00IZhQHD-5Pmych4AaABAg</t>
+          <t>Ugz1SJJ7QGPqImLNLiV4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5831,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ちょっと負けたぐらいでビービー言えないな、俺。</t>
+          <t>この後ネクソンの株3000円まで上がったのね。野田さんまだもってるのかなー</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -5844,12 +5842,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>あなたが大好きです</t>
+          <t>やまもと</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Ugx2_3LeUZP17WytgMN4AaABAg</t>
+          <t>Ugwbra02O3aQE2Lhf4h4AaABAg</t>
         </is>
       </c>
     </row>
@@ -5858,6 +5856,165 @@
         <v>206</v>
       </c>
       <c r="B207" t="inlineStr">
+        <is>
+          <t>テスタくんなんか綺麗になってない？</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>ゆき</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>UgxU4O35x3W2ds9-EY54AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>5:10
+横横で買った人が戻ってくるの意味がわかりません。誰か教えてくれる方はいらっしゃいませんか？</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>虎丸せがもう</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>UgygfLhhOzY2Fqo62qp4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>能力はあるのに資金が少ない場合はどうしたらいいですか？(笑)
+投資してみませんか？</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>chan katokichi</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>UgwbkpMCL6M6TLmZL2R4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>10月8日に収録したのかな？</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>むー</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>UgyWS7zKWgGjMjZGW8d4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>この入りのコントくだらないな でもそれがみたい人がここにいます</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>だぼす会議</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Ugza3VK3SgjdH3t3sPZ4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>12:56
+左上の証券の人が引いてて草</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>トイ Toy</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>UgzomeMb_Gg47UpfBMh4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
         <is>
           <t>テスタくんって絶対いい奴だよな
 普通こんなことまで公表しないと思う
@@ -5865,177 +6022,20 @@
 貴重な動画ありがとうございます</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="inlineStr">
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="inlineStr">
         <is>
           <t>kamosika3</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>Ugx3gqmcsLge7jft7Cl4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>プーチンが　パイプラインガス　４月１日からユーロ払いOKを出した　すぐにユーロ円買いました　上がってます</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>taka6065</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Ugxni7XfpEoqC3vGj_p4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>208</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>5:10
-横横で買った人が戻ってくるの意味がわかりません。誰か教えてくれる方はいらっしゃいませんか？</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>2</v>
-      </c>
-      <c r="D209" t="n">
-        <v>2</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>虎丸せがもう</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>UgygfLhhOzY2Fqo62qp4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ほんまに桃鉄やなwww</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>19</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Kou Na</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Ugz1SJJ7QGPqImLNLiV4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>210</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>10月8日に収録したのかな？</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>むー</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>UgyWS7zKWgGjMjZGW8d4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>この後ネクソンの株3000円まで上がったのね。野田さんまだもってるのかなー</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>やまもと</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Ugwbra02O3aQE2Lhf4h4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>テスタくんなんか綺麗になってない？</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>3</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>ゆき</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>UgxU4O35x3W2ds9-EY54AaABAg</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>通販みたい？？</t>
+          <t>プーチンが　パイプラインガス　４月１日からユーロ払いOKを出した　すぐにユーロ円買いました　上がってます</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -6082,12 +6082,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Toyo</t>
+          <t>taka6065</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>UgxyPvp476Kr_HakJdh4AaABAg</t>
+          <t>Ugxni7XfpEoqC3vGj_p4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6097,24 +6097,23 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>12:56
-左上の証券の人が引いてて草</t>
+          <t>テスタの真似しようとしてもカモになるだけ・・・</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>トイ Toy</t>
+          <t>max devil</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>UgzomeMb_Gg47UpfBMh4AaABAg</t>
+          <t>UgxucIle3VGgc5thfzt4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6124,23 +6123,23 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16:40ゴールデンクロスしてる時点で2200円近辺なんよ。初心者が多いからと、適当なこと言わんといてもろて。</t>
+          <t>通販みたい？？</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>固めの桃</t>
+          <t>Toyo</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Ugz9V1k9DuTOlw1XX9d4AaABAg</t>
+          <t>UgxyPvp476Kr_HakJdh4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6201,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>テスタの真似しようとしてもカモになるだけ・・・</t>
+          <t>桃鉄だな確かにww</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -6213,12 +6212,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>max devil</t>
+          <t>ドッペル・ゲンガー</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>UgxucIle3VGgc5thfzt4AaABAg</t>
+          <t>UgwEYgmlOQnXHlQKS4x4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6228,23 +6227,23 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>桃鉄だな確かにww</t>
+          <t>まじで桃鉄の話</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ドッペル・ゲンガー</t>
+          <t>REONARD OREO</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>UgwEYgmlOQnXHlQKS4x4AaABAg</t>
+          <t>UgwNTGKCU4Kil2TuyLF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6254,7 +6253,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>この入りのコントくだらないな でもそれがみたい人がここにいます</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -6265,12 +6264,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>だぼす会議</t>
+          <t>ukkari hatibei</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Ugza3VK3SgjdH3t3sPZ4AaABAg</t>
+          <t>UgyoB4BjRWBXEW8sldZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6279,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>まじで桃鉄の話</t>
+          <t>次回AJ参戦か</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -6291,12 +6290,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>REONARD OREO</t>
+          <t>無</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>UgwNTGKCU4Kil2TuyLF4AaABAg</t>
+          <t>UgwR-ObmyJ10ZH7Gsvx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6305,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>元で一千万くらいでやらないとつまらんよな</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -6317,12 +6316,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>きたがわまさき</t>
+          <t>うんぽこ</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>UgxsaDm9gww85fYgvQx4AaABAg</t>
+          <t>UgwA-c-wPvlrp6kDNad4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6331,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>むしろ負けた時のトレードがみたい</t>
+          <t>元で一千万くらいでやらないとつまらんよな</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -6343,12 +6342,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>High 太Low</t>
+          <t>きたがわまさき</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Ugy0o6xYHQU33IJjUtF4AaABAg</t>
+          <t>UgxsaDm9gww85fYgvQx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6358,23 +6357,23 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:40ゴールデンクロスしてる時点で2200円近辺なんよ。初心者が多いからと、適当なこと言わんといてもろて。</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ukkari hatibei</t>
+          <t>固めの桃</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>UgyoB4BjRWBXEW8sldZ4AaABAg</t>
+          <t>Ugz9V1k9DuTOlw1XX9d4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6384,7 +6383,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>次回AJ参戦か</t>
+          <t>桃鉄やんけww</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -6395,12 +6394,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>うにうに</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>UgwR-ObmyJ10ZH7Gsvx4AaABAg</t>
+          <t>UgwzSQBzPHTqRiVq8MF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6410,23 +6409,24 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>なんで松井証券使ってるんだろ？
+理由があるのかな？</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>うんぽこ</t>
+          <t>ルパン賛成</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>UgwA-c-wPvlrp6kDNad4AaABAg</t>
+          <t>Ugy1E7djWenNjcuWZt54AaABAg</t>
         </is>
       </c>
     </row>
@@ -6436,24 +6436,24 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>なんで松井証券使ってるんだろ？
-理由があるのかな？</t>
+          <t>日本の相場よえーなー笑笑
+右肩下がりやんけ笑笑</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>ルパン賛成</t>
+          <t>Jogger is better than Walker. So I buy shoes.</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Ugy1E7djWenNjcuWZt54AaABAg</t>
+          <t>Ugzwsb-k7MSQIMIDjuN4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>桃鉄やんけww</t>
+          <t>信用取引なんて素人には参考にならんやろ。</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -6474,12 +6474,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>うにうに</t>
+          <t>Jogger is better than Walker. So I buy shoes.</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>UgwzSQBzPHTqRiVq8MF4AaABAg</t>
+          <t>UgxieLgncS8lyZGXqZJ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6489,23 +6489,23 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>信用取引なんて素人には参考にならんやろ。</t>
+          <t>佐田さんガチで参考にしてそうで嫌だな</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jogger is better than Walker. So I buy shoes.</t>
+          <t>nikokin</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>UgxieLgncS8lyZGXqZJ4AaABAg</t>
+          <t>UgwLBhb7AC6YIKb4wEN4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6515,23 +6515,23 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>佐田さんガチで参考にしてそうで嫌だな</t>
+          <t>税金分も入れてや</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>nikokin</t>
+          <t>大久保優作</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>UgwLBhb7AC6YIKb4wEN4AaABAg</t>
+          <t>UgxCsBMCn2kcUt7hsZ54AaABAg</t>
         </is>
       </c>
     </row>
@@ -6541,8 +6541,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>日本の相場よえーなー笑笑
-右肩下がりやんけ笑笑</t>
+          <t>むしろ負けた時のトレードがみたい</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -6553,12 +6552,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jogger is better than Walker. So I buy shoes.</t>
+          <t>High 太Low</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Ugzwsb-k7MSQIMIDjuN4AaABAg</t>
+          <t>Ugy0o6xYHQU33IJjUtF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6568,23 +6567,23 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>税金分も入れてや</t>
+          <t>桃鉄ww</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>spice old</t>
+          <t>mmm</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>UgxCsBMCn2kcUt7hsZ54AaABAg</t>
+          <t>UgwFRxiLDBUKf00ydJx4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6594,8 +6593,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>プロというかよく専門知識を持ってやっている人はいいけど、これって初心者用で松井証券がPRしてるんでしょ？
-初心者がこれに影響されて金突っ込んだらすぐギャンブルになるの目に見えてるのに。自分は企業として悪いイメージを持ってしまったなぁ。</t>
+          <t>女の銭好きが溢れ出てて草</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -6606,12 +6604,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Na Su</t>
+          <t>イクシマ</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>UgynVdnkIn9HzLX2QyF4AaABAg</t>
+          <t>Ugw3eshXqGyLw12Xjh14AaABAg</t>
         </is>
       </c>
     </row>
@@ -6621,23 +6619,24 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>桃鉄ww</t>
+          <t>テスタさんの話はすごくありがたかったけど、ゴールデンクロスが～って話しはあんま入れない方がいいんじゃないかなぁ・・・。
+ゴールデンクロスはただの結果論・・・。</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>mmm</t>
+          <t>。 oz</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>UgwFRxiLDBUKf00ydJx4AaABAg</t>
+          <t>UgwgD8K2ep_v5RVbam54AaABAg</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6646,8 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>女の銭好きが溢れ出てて草</t>
+          <t>プロというかよく専門知識を持ってやっている人はいいけど、これって初心者用で松井証券がPRしてるんでしょ？
+初心者がこれに影響されて金突っ込んだらすぐギャンブルになるの目に見えてるのに。自分は企業として悪いイメージを持ってしまったなぁ。</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -6658,12 +6658,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>イクシマ</t>
+          <t>Na Su</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Ugw3eshXqGyLw12Xjh14AaABAg</t>
+          <t>UgynVdnkIn9HzLX2QyF4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6673,23 +6673,23 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>受給の発音おかしくない？？</t>
+          <t>ネク損</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>かやくだどん</t>
+          <t>無</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>UgwuwGpaCC7sRWRwMsZ4AaABAg</t>
+          <t>Ugy-AEozLs9xSoPOMDR4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6699,23 +6699,23 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>テスタはもう勝てないからユーチューバーにシフトしている。</t>
+          <t>受給の発音おかしくない？？</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>チビチロ</t>
+          <t>かやくだどん</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Ugy33zxCsBxI5mJOOAZ4AaABAg</t>
+          <t>UgwuwGpaCC7sRWRwMsZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ネク損</t>
+          <t>トレードなんて糞ようだ</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>田中ヒカル</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Ugy-AEozLs9xSoPOMDR4AaABAg</t>
+          <t>UgzNXxZmXyvFptus6xZ4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6751,23 +6751,25 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>トレードなんて糞ようだ</t>
+          <t>これも演出だろｗ
+カカムーチョの株買って翻弄とかが見たかったわｗ
+しかたない松井証券の商売だもんな</t>
         </is>
       </c>
       <c r="C241" t="n">
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>田中ヒカル</t>
+          <t>鯱</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>UgzNXxZmXyvFptus6xZ4AaABAg</t>
+          <t>Ugw7coyeddec8-Ia6Dp4AaABAg</t>
         </is>
       </c>
     </row>
@@ -6776,34 +6778,6 @@
         <v>241</v>
       </c>
       <c r="B242" t="inlineStr">
-        <is>
-          <t>これも演出だろｗ
-カカムーチョの株買って翻弄とかが見たかったわｗ
-しかたない松井証券の商売だもんな</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>0</v>
-      </c>
-      <c r="D242" t="n">
-        <v>2</v>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>鯱</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Ugw7coyeddec8-Ia6Dp4AaABAg</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" t="inlineStr">
         <is>
           <t>自分の金を投資してるのに番組の指示で売れないのはあかんやろ。
 投資を広める番組としてその辺はしっかりして欲しい。
@@ -6811,20 +6785,46 @@
 （もちろん、彼らにとって2万円はちっぽけかもしれませんが）</t>
         </is>
       </c>
+      <c r="C242" t="n">
+        <v>2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>JUMBO</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>UgyVFgFhPCq9Xx0C1zh4AaABAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>テスタはもう勝てないからユーチューバーにシフトしている。</t>
+        </is>
+      </c>
       <c r="C243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>JUMBO</t>
+          <t>チビチロ</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>UgyVFgFhPCq9Xx0C1zh4AaABAg</t>
+          <t>Ugy33zxCsBxI5mJOOAZ4AaABAg</t>
         </is>
       </c>
     </row>

--- a/data/kgSAOq9Rt6w.xlsx
+++ b/data/kgSAOq9Rt6w.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,1336 +425,1336 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>like_cnt</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>reply_cnt</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>user_name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>parentId</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>貴重な回。結果を出されている方の解説込みの実地は、多くの方の励みになるし望んでいたことだと思います。
 沢山の本を読むより、この回を見た方が個人的にはタメになりました。</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>のぶ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>UgzCFWEgzOOWTsVN7614AaABAg</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>神回‥テスタさんの取引状況見れたのも感動、それに対するマジラブのお二人のコメントも秀逸でした。武藤さん、佐田さんとの絡みバランスもちょうど良くて見やすいです。このシリーズずっと続いてほしいです。</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Ugzm0wULAitYjx0Q-Fd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>このシリーズ面白すぎるから、シーズン3が終わっても、また次を企画して欲しいなあ。</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>Yuki NGT</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Ugx0SklBC5Q6PV4rDqt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>次回が最終回って…、やめないで〜（泣）
 マヂラブ、テスタ君、佐田さん、武藤先生、完璧に絡み合って、最高に面白いし、めっちゃ勉強になります。
 俺、松井証券でも開設するし、松井証券の株も買うし、友達にも松井証券を勧めるから、お願いだから「学べるラブリー」をもっと続けてくださいよ〜。</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>Pineapple Road</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>UgwvOeBoynvR2LpGMep4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>素人です。手法も大切かもしれませんが、取引自体どのようにやっているのかわからないから
 こうして一通り見せてくれるだけでも実際の取引に一歩近づけます。ありがとうございます。</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>M T</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>UgxIUTArs6YhVHe3EUx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>テスタさんのトレード見れるとかガチの神回ですわ…ありがとう松井証券</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>am i</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>UgzpdDsXGyvwWzFPl_B4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>デイトレードや板の読み方等、実際にトレードしつつのテスタさんの説明がとてもわかりやすかったです。
 中長期向けの決算書の読み方も解説してほしい！</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>you you</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>Ugwr_6hFXOzQp4Qu-7t4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>これはすごい動画。場中にテスタさんを連れてきて実際に取引を見せるなんて、松井証券もすごいことするなぁ。でも、このメンバーだからこそテスタさんもOKしたのだろうな。またやってほしい。</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
         <is>
           <t>tanakanakata</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>UgxQ0Ty8Fu49ol669Hp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>この5人のメンバーが本当に面白い🤣完成度高すぎるお笑い番組❤️</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
         <is>
           <t>merry merry</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>Ugx44HD4BEaAuaEn-gZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>神回！
 テスタさんのガチトレード拝見できてめちゃくちゃ嬉しいです！！
 ありがとうございます！！</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>T K</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>UgyRBa_FwV7orIYvG854AaABAg</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>テスタくんのトレード見れるのは奇跡の動画…!!</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
         <is>
           <t>あおむし</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>UgxyZjvhKRzCBseEa4F4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>このシリーズ続いてほしい！もっと見たい^_^</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
         <is>
           <t>Good akan</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>UgxJ14snL-U3q6H8wQJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>デイトレードはやりませんが
 どこかでこの考え方が活かせるかもしれません。
 こういう実践編はほかにはなかなかないのでよい企画と思いました！</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
         <is>
           <t>tanaka tarou</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>Ugz0MIRQqEKZnGfWEtd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>神回であることには間違いないし、テスタさんにあこがれてデイトレ始める人真似してめちゃくちゃ儲かる人が出てくる一方で全財産なくす人や借金する人も出てきそう。</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>DF TS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>UgxcfxW68lgMYFHI_R94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>テスタ程腕利きのプロトレーダーでもこうやって負けることもあるんだから、逆にやる気が出てきた！これはいい動画。</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
         <is>
           <t>リコリス</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="1" t="inlineStr">
         <is>
           <t>UgzL_-mZGKR1uUE8axJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>めっちゃ面白い。BGMにファミコンサウンドつかってるのもセンスあるし
 テスタさんと芸人の絡みも面白い。続いてほしーーーーーーい！</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
         <is>
           <t>佐々木ゆう子</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>Ugw09vYxbdjFhcdNMbp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>この神回が出たことによって投資詐欺が減ったことを、俺は確信してる。ありがとうございます。テスタさん</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
         <is>
           <t>Ryosuke Shimoda</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>Ugw0n_E1yuRCwSctzXd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>これを見てわかるのは、
 テスタさんは、チャートをみて値動きある程度読み取っている。
 期待値の高いところで、常にトレードしてるとうかがえる。</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
         <is>
           <t>将大 沖野</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>UgzVf0kqNafscXGhcSF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>テスタ君のトレードを少しでも見れたのは貴重！自分のチャンネルで場中にLIVEとかやればいいのに。</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
         <is>
           <t>週末社長ゆず [未来の車を開発中]</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>UgxFz2lWTg74spf5jQR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>こういう動画もっとこれからもたくさん出していただきたいです。</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
         <is>
           <t>s sazaby</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>UgzDsUyuyfACykOIwC54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>佐田さん、マヂカルラブリーさんのお二人、テスタさんのコンビ、本当にシリーズ化してください！お願いします！</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
         <is>
           <t>かざぐるま</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>UgyegdXwhvbtk4Pgsy94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>ええええ、やめないでよー
 見てるだけでも本当に楽しいのにー</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>P K</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Ugwao5xyuurTSEPnLrx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>え？再開したと思ったら次回終わりなの？もっと続けてほしい。楽しく学べるしこのメンバー最高です。</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
         <is>
           <t>ma</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>UgwTUvo7WJBCgjlsOCx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>テスタさんの話は、３回ぐらい見ると理解できます。</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
         <is>
           <t>小林和子</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>Ugwv1BFU78WL2TRM7qh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>テスタ君いつもの何千万円ものトレード投げ打ってまでも、バーベルコントしに来る男気かっこよすぎだろう。。。
 松井証券さんありがとう😭</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
         <is>
           <t>salada</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="1" t="inlineStr">
         <is>
           <t>Ugwwh2IHsuETUiNSU3Z4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>郵船の前場の取引、テスタ神でもあぁいうことが起こるんだと、勇気づけられました･ﾟ･｡(ﾉД`)･ﾟ･｡</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
         <is>
           <t>Jerry</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>UgyHNHqWwcVS9eS7Zpl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>このシリーズ大好きです❤️
 出演者さん全員大好き！</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
         <is>
           <t>とがちゅわん</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="1" t="inlineStr">
         <is>
           <t>Ugxr0VZlD99BaFqrpf14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>具体例見れて感覚は掴めそうな番組。</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>UgxHuHxAdWNOe20Ro294AaABAg</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>この貴重なことをタダで知れるのもYouTubeの良さ</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
         <is>
           <t>ジャック・ニコルソン</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>Ugwe-lO_4iW2u2t2CCp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>今回は貴重な回！！＆面白かったー！</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>AVANTE Big</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>Ugzwu0G_aeyayjxT5gd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>このシリーズ続けて下さい。
 次回は前場のもう少し激しい時に。</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
         <is>
           <t>ta fu</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>Ugx3-Xkxk8CJRCDB15x4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>神回ですね！！！
 とても勉強になりました！</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
         <is>
           <t>投資家テスタさん切り抜きまとめ</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>UgxstxxY9bIQfNYwm_d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>テスタさんとの絡みがめちゃくちゃ面白い🤣</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
         <is>
           <t>Oki nawa</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>UgxTTLuniB7E2Al2byx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>何度見ても勉強になります。ありがとうございます。</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
         <is>
           <t>ぶっちゃけ創価チャンネル</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>Ugwwn0bo9c5KSvbUtNp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>テスタさん、金銭感覚は普通だから面白いw
 今のリスク許容度は桁違いだけど、投資家スタート時の原資は1000万も無かった訳だから夢あるね。</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
         <is>
           <t>YK</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="1" t="inlineStr">
         <is>
           <t>UgwGrZJbSZP7KLYbiEZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>この4人＋武藤先生で目指せ地上波</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
         <is>
           <t>山田太郎</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>UgweTN5flpzip_Kvp8F4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>次回最終回とか悲しすぎる😭　マジラブとテスタさん相性良くて面白くてすごい好きだった。</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
         <is>
           <t>MIYU</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>UgzdNEmsQLR-21pBok54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>このシリーズ大好き！</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
         <is>
           <t>s c</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>Ugy6M1NmzfvTmywKTFR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>相変わらず勉強になりますね。ありがとうございます。</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>ぶっちゃけ創価チャンネル</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>Ugz53yAzWS-pHg0lxbV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>勉強になります。ありがとうございます。</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>ぶっちゃけ創価チャンネル</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>Ugw1ai79VmTEt8TB1up4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>神回！テスタさんの取引もっと見たいです！</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
         <is>
           <t>as</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="1" t="inlineStr">
         <is>
           <t>UgwAqyGL7Gfjd7quW7h4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>テスタさんの説明わかりやすかったです。このコーナーめちゃくちゃ楽しみにしてます！</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="D43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
         <is>
           <t>ぽっちー</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>UgwUd53u6Un2v7EJdVF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>めっちゃ勉強になりました！
 ありがとうございます😊</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="D44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
         <is>
           <t>H I</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="1" t="inlineStr">
         <is>
           <t>UgyRK4EyITM60LaGaD14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>前のシリーズ見て口座開設しました。第２シリーズも楽しく見ています。今後も頑張ってください！</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="D45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
         <is>
           <t>爺と刑事</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="1" t="inlineStr">
         <is>
           <t>UgwvTcPk4w5kNW1cG7t4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>トレードし始めるとテスタさんの喋る速度と顔つきが変わるのがカッコイイ。</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
         <is>
           <t>Shinya Kaneko</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="1" t="inlineStr">
         <is>
           <t>UgxrwFFW24HlzRho9kB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>いつも面白く勉強もできます。</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="D47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
         <is>
           <t>かみやっち青黒</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="1" t="inlineStr">
         <is>
           <t>Ugy1lSLli8cU8vNTj6J4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>動画ありがとうございます！
 スゴク勉強になります^^</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
         <is>
           <t>ガクさん・デイトレーダー</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="1" t="inlineStr">
         <is>
           <t>UgxCBlPEZYyZ-UcLnG54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>次回最終回！？待ってくれよーー！永久に続けてくれ…</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
         <is>
           <t>源頼光</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="1" t="inlineStr">
         <is>
           <t>Ugw4LUH_jvR3Rs8Sv2p4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="1" t="inlineStr">
         <is>
           <t>インジ使わないのはとってもシンプルでやり易いかも知れないけど、シンプルだからこそ、そこまで行くのが一番難しいんよね。凄いな〜</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
         <is>
           <t>た あ</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="1" t="inlineStr">
         <is>
           <t>UgyLI4hFSQ_W0qgLJ954AaABAg</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>このメンタルと手法の固定化が
 月、年で見たら余裕でプラスになるんやろーな。わかってても出来ないのが
@@ -1759,767 +1762,767 @@
 BNF氏もずっとシンプル手法貫いてるみたいですね。貴重な動画ありがとうございます</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="C51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
         <is>
           <t>蓑田渉</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="1" t="inlineStr">
         <is>
           <t>UgzvMgHIsU8sVHeTlON4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>「学べるラブリー」参考になりました。
 ありがとうございます。継続のご検討をよろしくお願いします。</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="D52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
         <is>
           <t>T ISHIGURO</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="1" t="inlineStr">
         <is>
           <t>Ugw5IjxXlurWatNDvQ54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>投資で動かしてる種銭と
 食事で使う金が
 全然違うのは良くわかるｗ</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="D53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
         <is>
           <t>- NJMSTR</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="1" t="inlineStr">
         <is>
           <t>UgzGwH6gCS-Q8SpB5dB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>かなり勉強になる貴重な動画でした!</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="D54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
         <is>
           <t>投資家テスタさん切り抜きまとめ</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="1" t="inlineStr">
         <is>
           <t>Ugx42tE8Gi8EieBMb314AaABAg</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>これは結構すごい動画じゃない？
 いままで配信とかでテスタ氏は需給需給言ってはいたけど、実況は無かったもんね</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="D55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
         <is>
           <t>Koeno Buta</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="1" t="inlineStr">
         <is>
           <t>UgzGVfWx8ylVON3mKsN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="1" t="inlineStr">
         <is>
           <t>今年の2月に始めて、今月初めて1000万円利益でました。テスタくんを目標にこれからも頑張ります。
 いい刺激をありがとうございます。</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
+      <c r="D56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
         <is>
           <t>G U</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="1" t="inlineStr">
         <is>
           <t>UgztOgdYb3WStV7p-Bt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>これは、ホントのホントに、ホントの神回‼
 ねぇ・・続けてよ～！</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="D57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
         <is>
           <t>West Valley</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="1" t="inlineStr">
         <is>
           <t>UgxUgkUF8KbXCYALgdF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>テスタ君に一般人と同じ10万とかの取引でやって欲しい</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="D58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
         <is>
           <t>C Sa</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="1" t="inlineStr">
         <is>
           <t>UgywpdGSn_umzrNZsTR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>テスタさんほんと好き！！</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="D59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
         <is>
           <t>E NA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="1" t="inlineStr">
         <is>
           <t>Ugz-c7QpbCN24gjkGcB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="1" t="inlineStr">
         <is>
           <t>米国株やETFがイージーモードだとしたら日本個別株ははっきり言ってハードモード、
 しかし日本の証券会社は基本的に日本株推し、米国株は手数料も高いしシステム上も日本株優遇
 結果、今回の野田さんみたいな収支になって株がイヤになる人が多いと思ってます。</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
+      <c r="D60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
         <is>
           <t>T M</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="1" t="inlineStr">
         <is>
           <t>UgySo6GU1EF_SKSuxrt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>人生変える神回。</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="D61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
         <is>
           <t>rieko</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="1" t="inlineStr">
         <is>
           <t>Ugykz7Khi9FqXVtXoP54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>神回すぎるだろｗ</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="D62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
         <is>
           <t>デカ兄さん</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="1" t="inlineStr">
         <is>
           <t>UgxSlZMQXyocY1j45Sd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>テスタさんのトレード貴重でしたーあざっす！</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="D63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>haruzox</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="1" t="inlineStr">
         <is>
           <t>UgzmAKteCRgeS2j0Y494AaABAg</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>テスタくんシリーズほんとすこ</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="C64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
         <is>
           <t>Squall 2017</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="1" t="inlineStr">
         <is>
           <t>Ugx9RCEMeswAFwYZa-14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>テスタ神の取引みれるねは凄い。</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="D65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
         <is>
           <t>Mr PoPo</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" s="1" t="inlineStr">
         <is>
           <t>UgxE4eCGP2an0AR16_p4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>実際のテスタさんのスキャはこんなものでなく、職人技のはず✨</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="D66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
         <is>
           <t>miracle mint</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="1" t="inlineStr">
         <is>
           <t>UgzGSZGdHTQydmHdq8l4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="1" t="inlineStr">
         <is>
           <t>テスタくん最高ですね😂</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="C67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
         <is>
           <t>ピコン</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="1" t="inlineStr">
         <is>
           <t>Ugx9y4GzYPLry6lLjoh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="1" t="inlineStr">
         <is>
           <t>村上さんがテスタくんち行ったら焼酎の3Mゴロゴロ転がってた話思い出して笑った
 ていうか次最終回なのか 寂しい</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="D68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
         <is>
           <t>asdfgh JKL</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="1" t="inlineStr">
         <is>
           <t>UgxXn4IyheSFz42C2xd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="1" t="inlineStr">
         <is>
           <t>額が凄過ぎるけど、楽しく観ることができました。</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="D69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
         <is>
           <t>shinsanfit シンサンフィット</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="1" t="inlineStr">
         <is>
           <t>UgwNS51wNsRnvrF2LXl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>初めてこのチャンネル見て、めっちゃおもろい！おもたら、まさかの次回最終回。笑</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
+      <c r="D70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
         <is>
           <t>エンジンエンジン</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="1" t="inlineStr">
         <is>
           <t>UgyiWZcCNEuTJ7ZpHO14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>今度はもっとテクニカルを使って機械的にトレードする方とかを呼ぶのもいいかもね</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="D71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
         <is>
           <t>高波</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="1" t="inlineStr">
         <is>
           <t>UgyYa_fMmJS1iba2pYh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="1" t="inlineStr">
         <is>
           <t>この番組面白い！</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="C72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
         <is>
           <t>H YS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" s="1" t="inlineStr">
         <is>
           <t>UgwHyAHGvOjtoLE0QAx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="1" t="inlineStr">
         <is>
           <t>参考になるなぁ</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="D73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
         <is>
           <t>みゆりxxx。</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="1" t="inlineStr">
         <is>
           <t>Ugyc_CyLTX6A4xVwP-F4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="1" t="inlineStr">
         <is>
           <t>有料（安価希望）でもいいので続けてほしい</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="D74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
         <is>
           <t>じゃじゃファ</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" s="1" t="inlineStr">
         <is>
           <t>UgxrT6lMuiJPQJVfqdx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>貴重な動画ですね！</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
         <is>
           <t>ナオタロウTV</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="1" t="inlineStr">
         <is>
           <t>UgwC5llG6O55fN0hVoB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="1" t="inlineStr">
         <is>
           <t>地味に50億トレーダーのin out見れるとかかなりレアじゃね</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
+      <c r="D76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
         <is>
           <t>//N</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="1" t="inlineStr">
         <is>
           <t>Ugx4F5MFHjKBBUI5mol4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>テスタさんの買う株数多すぎて、株価に影響与えてるよね笑</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr">
+      <c r="D77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
         <is>
           <t>sho</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="1" t="inlineStr">
         <is>
           <t>UgwnsjghDnsBCkLNNXB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>ネクソン買うのセンス良すぎ。
 さすが2冠王。</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="D78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
         <is>
           <t>コアラマン</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="1" t="inlineStr">
         <is>
           <t>UgzKweqavv6t6l5f6ph4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="1" t="inlineStr">
         <is>
           <t>テスタ氏のトレード見られるのすごいですね！
 次回が最終回って早すぎます…！マヂラブの予定おさえるのが難しいのもあると思いますがまた次シーズン期待してます🥰</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
         <is>
           <t>ぽっぽ</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="1" t="inlineStr">
         <is>
           <t>UgyfmQ1C7rxltRjuNM94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="1" t="inlineStr">
         <is>
           <t>取引になれていないものにとっては、とても参考になりました。
 詳しいテスタさんに対して、入門のマジカルミライさんの疑問が本当に参考になりました。
@@ -2527,1264 +2530,1264 @@
 次回、最終回もとても残念です。</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="D80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
         <is>
           <t>おれんじオレンジ</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="1" t="inlineStr">
         <is>
           <t>UgwP3Ia-WKDyW0uz37l4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>テスタきた、テスタ来た、めっちゃ受けです。
 ホールドじゃなく、そこ抜けたら、損切が大事だよって、最後アドバイスしていたのがやっぱ印象的♡</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
+      <c r="D81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
         <is>
           <t>w m</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="1" t="inlineStr">
         <is>
           <t>UgyzOjjwYwO37fBalJ54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="1" t="inlineStr">
         <is>
           <t>テスタくんは多分、儲けたリターンをお金だと感じていないんじゃないかな？
 凄いゲーマーが、ひたすらハイスコアを目指してるみたいな感じかも？ 📈</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="D82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
         <is>
           <t>Y Sekiai</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="1" t="inlineStr">
         <is>
           <t>UgyC6q9CIuXRH6moA-54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="1" t="inlineStr">
         <is>
           <t>9:46
 このくだりほんと好きw</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="D83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
         <is>
           <t>とみー1985</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="1" t="inlineStr">
         <is>
           <t>UgyvH8Zp8r_H9_nE0ct4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="1" t="inlineStr">
         <is>
           <t>これはおっもしろい。ちゃんとした理由で買って売って失敗してるから次につながるんだね。</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="D84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
         <is>
           <t>mi no</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" s="1" t="inlineStr">
         <is>
           <t>UgzpUeYZE35ZUKWIvMR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="1" t="inlineStr">
         <is>
           <t>神回の予感( ˇωˇ )</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="D85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
         <is>
           <t>イッチーの暇潰し</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" s="1" t="inlineStr">
         <is>
           <t>UgwSm7vY4CyW4Q9WyMd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="1" t="inlineStr">
         <is>
           <t>テスタさんぐらいの資産になると、買いたくても買えないし、売りたくても売れないからデイトレは向いてないってことですね。</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="D86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
         <is>
           <t>森野クマ</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="1" t="inlineStr">
         <is>
           <t>UgzGWXSHeZKgkZUvCRF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="1" t="inlineStr">
         <is>
           <t>松井証券口座持ってますが、信用取引の画面操作方法などもっと初心者向けに詳しく教えて欲しいです💖</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="D87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
         <is>
           <t>merry merry</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" s="1" t="inlineStr">
         <is>
           <t>UgzLKGOQJ4UNLIF9wtt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="1" t="inlineStr">
         <is>
           <t>テスタさんは資産が増えてスキャが無理に成ったので、スイングに移行したからスキャは難しいんだろうな。
 スイングの時に使う能力とスキャの時とは別物ってTwitterでも言ってたけど、番組の為に無理をしたのでしょう。</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
         <is>
           <t>TheMYTUBE7</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="1" t="inlineStr">
         <is>
           <t>UgwaUEwbjzulAQKvuml4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="1" t="inlineStr">
         <is>
           <t>やっぱり資金が増えるほど入れ物がキツくなってくるから、長期にならざるを得ないんだな。</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="inlineStr">
+      <c r="D89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
         <is>
           <t>おきてがみ【将棋】</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" s="1" t="inlineStr">
         <is>
           <t>UgwEQ_vo1DvVfm0tAB14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="1" t="inlineStr">
         <is>
           <t>この動画のおかげで株を始めたまである</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="inlineStr">
+      <c r="C90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
         <is>
           <t>おーた</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" s="1" t="inlineStr">
         <is>
           <t>UgwPJ8qu_PTPN_Ip73l4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="1" t="inlineStr">
         <is>
           <t>面白かったです☺️笑</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="inlineStr">
+      <c r="D91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
         <is>
           <t>まるめがね / 受験・就活 応援チャンネル</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" s="1" t="inlineStr">
         <is>
           <t>UgySACksJFmNguawfvF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="1" t="inlineStr">
         <is>
           <t>新城のファンより、面白いですよ。毎回楽しみ笑笑</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="D92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
         <is>
           <t>tooyama eishi</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" s="1" t="inlineStr">
         <is>
           <t>UgwvTqldONNGcpyRR4N4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="1" t="inlineStr">
         <is>
           <t>デイトレ実践編の続編頼む</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
         <is>
           <t>プロテイン飲みます</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="1" t="inlineStr">
         <is>
           <t>Ugxd_JdXnOKkTTLI4SB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="1" t="inlineStr">
         <is>
           <t>これは伸びる動画</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="D94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
         <is>
           <t>FX博打主婦</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" s="1" t="inlineStr">
         <is>
           <t>UgxphLchS_4JtjzOT2R4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="1" t="inlineStr">
         <is>
           <t>これが全てではないだろうけど、上手い人ほどやっぱりシンプルかつルールがしっかりしているから余計な情報が無いなと</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="D95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
         <is>
           <t>s t</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="1" t="inlineStr">
         <is>
           <t>Ugxi3y8EM5z_NLDUUdd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="1" t="inlineStr">
         <is>
           <t>めっちゃ良い企画やん✨✨🌈
 もっとやってぇ🌈</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="D96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
         <is>
           <t>aaaggg</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="1" t="inlineStr">
         <is>
           <t>Ugwk1Jk7A_Z5_pFM7Q94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="1" t="inlineStr">
         <is>
           <t>自分にはデイトレは難しい…テスタ君みたいに考えて買えないよう。長期でやるよ</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="inlineStr">
+      <c r="D97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
         <is>
           <t>vel vel</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" s="1" t="inlineStr">
         <is>
           <t>UgyG3mCa-pkafQRy1rZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="1" t="inlineStr">
         <is>
           <t>9:15　テスタさんでもスキャでみんながよくやる往復ビンタ食らうの何かすごい安心する</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" s="1" t="inlineStr">
         <is>
           <t>Orange Sunset</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" s="1" t="inlineStr">
         <is>
           <t>UgwfZeiwipWCd59QUyh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="1" t="inlineStr">
         <is>
           <t>テスタさんの取引に参入する根拠、気になりますね～どういったロジックなのか。</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="inlineStr">
+      <c r="C99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
         <is>
           <t>為替の流儀</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="1" t="inlineStr">
         <is>
           <t>UgwV_h4ukiydLSXLRsN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="1" t="inlineStr">
         <is>
           <t>資金が多すぎるせいで単価が上がってしまうの、神の悩みすぎる</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="inlineStr">
+      <c r="D100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
         <is>
           <t>さるおくん</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" s="1" t="inlineStr">
         <is>
           <t>Ugw8ud-nsyEG1LekTPp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="1" t="inlineStr">
         <is>
           <t>テスタ面白い。なかなか言えないよ</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="D101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
         <is>
           <t>ゆーすけ</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="1" t="inlineStr">
         <is>
           <t>UgxYgHhnnBL8tKCZKEV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="1" t="inlineStr">
         <is>
           <t>次最終回？お願い止めないでください。せめてあと1年続けてほしいです😭</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="inlineStr">
+      <c r="D102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
         <is>
           <t>ジャスミンティー</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" s="1" t="inlineStr">
         <is>
           <t>Ugz5HJk7D-WhjyKa76R4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="1" t="inlineStr">
         <is>
           <t>こうして1ティックの動きを大切にしている投資家を見ると、ほんと高額な手数料取る対面証券って経済の癌だと感じる</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="D103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
         <is>
           <t>アパラチア山脈</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="1" t="inlineStr">
         <is>
           <t>UgzfbdDBGomJgRkGhcZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="1" t="inlineStr">
         <is>
           <t>面白いな。テスタさん</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="inlineStr">
+      <c r="D104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
         <is>
           <t>jacky nan</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="1" t="inlineStr">
         <is>
           <t>UgydaYggbUd5yRuanrF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="1" t="inlineStr">
         <is>
           <t>このシリーズは鉄板</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="inlineStr">
+      <c r="D105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
         <is>
           <t>Gorilla Oyakata</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="1" t="inlineStr">
         <is>
           <t>UgxTqilsJpU414m-bAl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="1" t="inlineStr">
         <is>
           <t>次回は前場で是非テスタさんのデイトレ見たいです！</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="inlineStr">
+      <c r="D106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
         <is>
           <t>健太 斉藤</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="1" t="inlineStr">
         <is>
           <t>UgzHVV_Y1JLGRa_zeBV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="1" t="inlineStr">
         <is>
           <t>いやぁおもしろかった</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="inlineStr">
+      <c r="D107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
         <is>
           <t>上質</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="1" t="inlineStr">
         <is>
           <t>Ugydc3DMUXBYauh2hZd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="1" t="inlineStr">
         <is>
           <t>面白すぎる</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="inlineStr">
+      <c r="D108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
         <is>
           <t>T T</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="1" t="inlineStr">
         <is>
           <t>UgwDrl0Qu5oJgw82tpN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="1" t="inlineStr">
         <is>
           <t>鰻の7000円は高いw
 めっちゃおもろいんで続編お願いいたします！</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="D109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
         <is>
           <t>lime R</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="1" t="inlineStr">
         <is>
           <t>Ugx4wrKqUzye1oGwfSV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="1" t="inlineStr">
         <is>
           <t>佐田さん可愛いなぁ
 声のトーンとかも質問の優しい言い方とか好き</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="C110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
         <is>
           <t>やりたいことは全部</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="1" t="inlineStr">
         <is>
           <t>Ugx03vO0jKOR4vI22B94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="1" t="inlineStr">
         <is>
           <t>これは貴重‼️
 松井証券さんありがとう😊</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="inlineStr">
+      <c r="D111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
         <is>
           <t>たまねぎ夫人</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="1" t="inlineStr">
         <is>
           <t>Ugz0u1fgR1qKo4ZWSCB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="1" t="inlineStr">
         <is>
           <t>最初の寸劇おもろ笑笑</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
+      <c r="C112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
         <is>
           <t>H I</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="1" t="inlineStr">
         <is>
           <t>UgxGg97QIklrBtSb3j14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="1" t="inlineStr">
         <is>
           <t>これめちゃくちゃ有難いんだけど、収録は前場にするべきだったよね笑</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="D113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
         <is>
           <t>B・C・U</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" s="1" t="inlineStr">
         <is>
           <t>UgzDyZbpF5Z2OsWZxkV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="1" t="inlineStr">
         <is>
           <t>神が人の作り方を少しだけ教えてくれた感じ</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="D114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
         <is>
           <t>G. Tana</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="1" t="inlineStr">
         <is>
           <t>UgxeG9_ptKB1s0E2b0J4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="1" t="inlineStr">
         <is>
           <t>ネクソンめちゃ上がってるな笑
 ホールド成功！</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="inlineStr">
+      <c r="D115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
         <is>
           <t>ひらフィッシングチャンネル　fishing</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="1" t="inlineStr">
         <is>
           <t>Ugz0nZ0ibaR6qHd_sap4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="1" t="inlineStr">
         <is>
           <t>テスタくんの家にロケ行って
 前場取引を眺めたい！</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="D116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
         <is>
           <t>ペペたま</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" s="1" t="inlineStr">
         <is>
           <t>Ugz2qJITxXPd1mBXOqx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="1" t="inlineStr">
         <is>
           <t>やっぱり学園物はおもしろい.....っです！</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="D117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
         <is>
           <t>AIロボ</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" s="1" t="inlineStr">
         <is>
           <t>Ugys0Y6fWtp0KK7mdbZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="1" t="inlineStr">
         <is>
           <t>はじめまして！このシリーズ大ファンです😂
 続けてください❗️</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="D118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
         <is>
           <t>ペコ</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F118" s="1" t="inlineStr">
         <is>
           <t>UgyVUin0JxM169ysge54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="1" t="inlineStr">
         <is>
           <t>プロもこれだけ負けると分かれば安心できる</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="D119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
         <is>
           <t>ラフテルちゃん</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" s="1" t="inlineStr">
         <is>
           <t>Ugw9sk6IccsDUDgpbtV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="1" t="inlineStr">
         <is>
           <t>把握してる銘柄の2/3くらいまでホールドするんだな…</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="D120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
         <is>
           <t>うなぎAnguilla japonica</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="1" t="inlineStr">
         <is>
           <t>UgxLltOplcwbDLMnE554AaABAg</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="1" t="inlineStr">
         <is>
           <t>テスタさん好きだー</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
         <is>
           <t>momo momo</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="1" t="inlineStr">
         <is>
           <t>Ugw4BkyvSf_YO4gU6rJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="1" t="inlineStr">
         <is>
           <t>ネクソン持ち続けると儲けてますね。おめでとうございます野田君</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="inlineStr">
+      <c r="D122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
         <is>
           <t>CL T</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F122" s="1" t="inlineStr">
         <is>
           <t>Ugx9Y9n1yImrA-S6Izl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="1" t="inlineStr">
         <is>
           <t>ためになるよなぁ
 マジで損切りは大事　
 ネクソンみたいに塩漬けしちゃうのは初心者あるある</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1" t="inlineStr">
         <is>
           <t>Sa c</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="1" t="inlineStr">
         <is>
           <t>Ugyxpe24mQ8iNZ7im3p4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="1" t="inlineStr">
         <is>
           <t>テスタさんはえぐすぎなんよ…</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="inlineStr">
+      <c r="D124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1" t="inlineStr">
         <is>
           <t>うわーー!!!</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="1" t="inlineStr">
         <is>
           <t>UgyUUNsRACO367Z8T6V4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="1" t="inlineStr">
         <is>
           <t>おもしろい！
 佐田さんかわいい笑</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="inlineStr">
+      <c r="D125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="inlineStr">
         <is>
           <t>ho ko</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F125" s="1" t="inlineStr">
         <is>
           <t>UgzcrKPpYPy98lHKuKJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="1" t="inlineStr">
         <is>
           <t>桃鉄じゃん！のツッコミ最高です</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="inlineStr">
+      <c r="D126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="inlineStr">
         <is>
           <t>JPN_Morgan</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" s="1" t="inlineStr">
         <is>
           <t>UgzswTNGOac8_jcrd3J4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="1" t="inlineStr">
         <is>
           <t>本気の売買みてぇええええ</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="D127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="inlineStr">
         <is>
           <t>k 、</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" s="1" t="inlineStr">
         <is>
           <t>UgziD0V-oCbioEVqFiZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="1" t="inlineStr">
         <is>
           <t>自分が買ってた銘柄出てきたんでなんかすごい親近感が…
 ネクソンは俺もちょっと前に買ってましたわ
@@ -3793,2228 +3796,2228 @@
 船はなぜか暴落の直前の高値でいつも売り逃げれてますね</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="inlineStr">
+      <c r="C128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="inlineStr">
         <is>
           <t>西園寺忍</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F128" s="1" t="inlineStr">
         <is>
           <t>Ugwwsq1XwUKtW0eMwgl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="1" t="inlineStr">
         <is>
           <t>敬語じゃないのが好き</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="inlineStr">
+      <c r="D129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="inlineStr">
         <is>
           <t>ガリ</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F129" s="1" t="inlineStr">
         <is>
           <t>UgwWoP_zbdiUqGL3RZp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="1" t="inlineStr">
         <is>
           <t>うわぁ…ありがとうございました😳🔍</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="inlineStr">
+      <c r="D130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="inlineStr">
         <is>
           <t>ない湯naiiyu</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F130" s="1" t="inlineStr">
         <is>
           <t>UgyeRol3E-q5fjV2XG94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="1" t="inlineStr">
         <is>
           <t>今ネクソン株2088まで上がってるからホールドして正解だったね</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="D131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1" t="inlineStr">
         <is>
           <t>maimai</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F131" s="1" t="inlineStr">
         <is>
           <t>UgzA2YGCGPlnZF2n_M54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="1" t="inlineStr">
         <is>
           <t>このメンバーで　細々でも　たまにでも　とにかく続けてほしいです</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="D132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
         <is>
           <t>moko popo</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="1" t="inlineStr">
         <is>
           <t>Ugzkzwf_-UGz7pWE7il4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="1" t="inlineStr">
         <is>
           <t>9:40
 株難しいな〜
 にキュンとした(笑)</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="D133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1" t="inlineStr">
         <is>
           <t>名無しの権兵衛</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" s="1" t="inlineStr">
         <is>
           <t>Ugz9NrcH5QELfjJHptV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="1" t="inlineStr">
         <is>
           <t>野田くん、ホールドで10,22戻ってるからナイスガチホ</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="inlineStr">
+      <c r="D134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="inlineStr">
         <is>
           <t>あらまな</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F134" s="1" t="inlineStr">
         <is>
           <t>UgwcfbfAdiqiGEkKGQF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="1" t="inlineStr">
         <is>
           <t>デイトレのヤツは損失確定だけど保有株は含み損だからあんまり関係無いんだよな。
 ネクソン調べたら結構良いところで買ってるぞ。今ぐらいの時期に手放したとしたらかなりの利益出してるな。</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="inlineStr">
+      <c r="C135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="inlineStr">
         <is>
           <t>健久保田</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F135" s="1" t="inlineStr">
         <is>
           <t>Ugx8YIxjNuMkRCEVa7x4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="1" t="inlineStr">
         <is>
           <t>面白いー笑</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="D136" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
         <is>
           <t>nao nao</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" s="1" t="inlineStr">
         <is>
           <t>UgzmY0h2OFsWdIiXfhF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="1" t="inlineStr">
         <is>
           <t>村上さん、おめでとうございます。</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="inlineStr">
+      <c r="D137" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="inlineStr">
         <is>
           <t>T ISHIGURO</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F137" s="1" t="inlineStr">
         <is>
           <t>UgwEVUULcfJwT6LN3lJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="1" t="inlineStr">
         <is>
           <t>12月からつみたてNISAに申し込みできるので、すごい勉強になりました！</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="C138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="inlineStr">
         <is>
           <t>ひっか</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" s="1" t="inlineStr">
         <is>
           <t>UgwWs1FnJWiDbQ_cCeZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="1" t="inlineStr">
         <is>
           <t>50億で1〜2億変動するなら
 50万で1〜2万で運用してるようなものなんだな</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="inlineStr">
+      <c r="D139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
         <is>
           <t>マスクメロン</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="1" t="inlineStr">
         <is>
           <t>UgwzrzJU7-JcP5Wd3OJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="1" t="inlineStr">
         <is>
           <t>マジカルラブリーいいやん</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="inlineStr">
         <is>
           <t>ukkari hatibei</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" s="1" t="inlineStr">
         <is>
           <t>Ugx9zZkjlVvWJG8gwLR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="1" t="inlineStr">
         <is>
           <t>負けてるほうが何故かドヤ感が増す</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="inlineStr">
+      <c r="D141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1" t="inlineStr">
         <is>
           <t>きんきん</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F141" s="1" t="inlineStr">
         <is>
           <t>UgyS7QwIgfw2M3_Rwdx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="1" t="inlineStr">
         <is>
           <t>16:32 あるあるですが、ゴールデンクロスを見てから買ったら、もうまったく利益を取れていないです(笑)</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="inlineStr">
+      <c r="D142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1" t="inlineStr">
         <is>
           <t>kusu</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" s="1" t="inlineStr">
         <is>
           <t>UgwyCAXBF1A-0ZgXsRp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="1" t="inlineStr">
         <is>
           <t>わーい🙌　ずっと見てられます✨</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="inlineStr">
+      <c r="D143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1" t="inlineStr">
         <is>
           <t>Light Art</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F143" s="1" t="inlineStr">
         <is>
           <t>UgybCpdJm3K_ah-IVR94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="1" t="inlineStr">
         <is>
           <t>最高！
 👍</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="inlineStr">
+      <c r="D144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="inlineStr">
         <is>
           <t>ススクレッソ海道</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F144" s="1" t="inlineStr">
         <is>
           <t>UgxETrbeNHcHPvu6soR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="1" t="inlineStr">
         <is>
           <t>デイトレは初心者がチャート頼りにトレードすると100％負けるよ</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="inlineStr">
+      <c r="C145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1" t="inlineStr">
         <is>
           <t>綾鷹</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="1" t="inlineStr">
         <is>
           <t>Ugw_xnDf6a2jRU_wtvF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="1" t="inlineStr">
         <is>
           <t>こんなの無料で見れちゃうのか…</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="inlineStr">
+      <c r="D146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="inlineStr">
         <is>
           <t>池田 憲太郎</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F146" s="1" t="inlineStr">
         <is>
           <t>UgysO5XQcq0agHjNxXZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="1" t="inlineStr">
         <is>
           <t>おもれーなーｗ</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="inlineStr">
+      <c r="D147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1" t="inlineStr">
         <is>
           <t>ZwolFelf</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F147" s="1" t="inlineStr">
         <is>
           <t>UgxUXmVcwHAcmrpx1pB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="1" t="inlineStr">
         <is>
           <t>日経ミニのDTも見せてください</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="inlineStr">
+      <c r="C148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="inlineStr">
         <is>
           <t>えこ</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F148" s="1" t="inlineStr">
         <is>
           <t>Ugw2WXkcLrFAgYEDkPl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="1" t="inlineStr">
         <is>
           <t>芸人のやつも真剣だし、的確だね　　歩実ね見ないのかな？　見てるよね</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="inlineStr">
+      <c r="D149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="inlineStr">
         <is>
           <t>フッサール</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="1" t="inlineStr">
         <is>
           <t>UgwOK3K3rV8T9eOBC7d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="1" t="inlineStr">
         <is>
           <t>神回！</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="inlineStr">
         <is>
           <t>yoshi</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="1" t="inlineStr">
         <is>
           <t>UgzfJ85BifWs9xWBAwB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="1" t="inlineStr">
         <is>
           <t>次で終わるの悲しいいい</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="inlineStr">
+      <c r="D151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="inlineStr">
         <is>
           <t>ふなぽん</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="1" t="inlineStr">
         <is>
           <t>Ugw-4hXIDM3f0WvhgnR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="1" t="inlineStr">
         <is>
           <t>筋トレにトレードは結構大事よ</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="inlineStr">
+      <c r="C152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1" t="inlineStr">
         <is>
           <t>中江太宥</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="1" t="inlineStr">
         <is>
           <t>Ugx1I_EyRNJSjNLYa5t4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="1" t="inlineStr">
         <is>
           <t>作中最強キャラがやっと戦ってくれた</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="inlineStr">
+      <c r="D153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1" t="inlineStr">
         <is>
           <t>Kari Kari</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="1" t="inlineStr">
         <is>
           <t>Ugw9R-e1muoBOULpQXd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="1" t="inlineStr">
         <is>
           <t>1000株単位の頃はサルでも勝ててた、いやサル顔の人でも勝ててたけど、100株単位統一されてデイトレーダーは激減したよ。それは証券会社の人がよく知っている筈。</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="inlineStr">
+      <c r="C154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1" t="inlineStr">
         <is>
           <t>sign paper</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="1" t="inlineStr">
         <is>
           <t>Ugzh7R2n7DUvfh_wDU94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="1" t="inlineStr">
         <is>
           <t>隠れ武藤先生推しマンです</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="inlineStr">
+      <c r="D155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="inlineStr">
         <is>
           <t>Manchu Fu</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="1" t="inlineStr">
         <is>
           <t>UgwbH5nrgboJEu5cpjJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="1" t="inlineStr">
         <is>
           <t>このチャートでネクソン買うのはヤバイ笑</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="inlineStr">
+      <c r="D156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1" t="inlineStr">
         <is>
           <t>kanri kensu</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F156" s="1" t="inlineStr">
         <is>
           <t>Ugw8PlMmd0EV5QnNAyp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="1" t="inlineStr">
         <is>
           <t>テスタくんのおじいちゃん設定はどこへ行ったんだろうw</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="inlineStr">
+      <c r="D157" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1" t="inlineStr">
         <is>
           <t>ペコネン</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" s="1" t="inlineStr">
         <is>
           <t>Ugzqr1rz13GS-s45QiZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="1" t="inlineStr">
         <is>
           <t>やったー、テスタさんだー！🙌</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="inlineStr">
+      <c r="D158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1" t="inlineStr">
         <is>
           <t>Summer Baby</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F158" s="1" t="inlineStr">
         <is>
           <t>UgyWg7tON1NcjRsA8ZV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="1" t="inlineStr">
         <is>
           <t>真似すべからず、見てるとただの博打マネーゲーム、悪運ないと終わる。。。</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="inlineStr">
+      <c r="C159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1" t="inlineStr">
         <is>
           <t>tube1 you</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" s="1" t="inlineStr">
         <is>
           <t>UgwKyOrdZPtrbeTsJ1t4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="1" t="inlineStr">
         <is>
           <t>テスタさんのガチトレードがみれるとは！！
 前場の値動きが激しい時が一番集中する話はテスタさんのYouTubeでも話されてましたねー
 https://youtu.be/phh6xQBOCvc</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="inlineStr">
+      <c r="C160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1" t="inlineStr">
         <is>
           <t>投資家テスタchannel 【切り抜き】</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" s="1" t="inlineStr">
         <is>
           <t>UgyjbQQy3cly_IRpg0d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="1" t="inlineStr">
         <is>
           <t>デイトレードってこういうことしてるのか〜、そりゃディスプレイ何個も必要だね。やっと理解出来たわ。</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="inlineStr">
+      <c r="C161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="inlineStr">
         <is>
           <t>qyqko</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F161" s="1" t="inlineStr">
         <is>
           <t>UgypHiPqKFBPjmYqb9d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="1" t="inlineStr">
         <is>
           <t>ネクソン買ってるの笑う</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="inlineStr">
+      <c r="C162" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1" t="inlineStr">
         <is>
           <t>Unko men</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F162" s="1" t="inlineStr">
         <is>
           <t>UgwQ6mfjfVwM1gFdsIx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="1" t="inlineStr">
         <is>
           <t>投資やってるとお金がお金を生むことがわかるから浪費するのがバカらしくなる</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="inlineStr">
+      <c r="D163" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1" t="inlineStr">
         <is>
           <t>もちもちこ</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F163" s="1" t="inlineStr">
         <is>
           <t>Ugw67lVi-aq1mYGsf9d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="1" t="inlineStr">
         <is>
           <t>面白かったけど
 天才の真似してデイトレで儲けようとすると
 普通の人は痛い目見るからね</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="inlineStr">
+      <c r="C164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1" t="inlineStr">
         <is>
           <t>FX. baka</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F164" s="1" t="inlineStr">
         <is>
           <t>UgyUhlGbadICJbT8xkZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="1" t="inlineStr">
         <is>
           <t>ここまでお金あると自分で板あやつって相場動かせそうだな。</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="inlineStr">
+      <c r="D165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1" t="inlineStr">
         <is>
           <t>貧乏脱出したい</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F165" s="1" t="inlineStr">
         <is>
           <t>UgyPqmO91AyIw267BVt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="1" t="inlineStr">
         <is>
           <t>取り戻せる誤差だから余裕なんだよな</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="inlineStr">
+      <c r="C166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1" t="inlineStr">
         <is>
           <t>kstdu</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F166" s="1" t="inlineStr">
         <is>
           <t>Ugwevq_1qmZwJuF-nLB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="1" t="inlineStr">
         <is>
           <t>Awsome!</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="inlineStr">
+      <c r="C167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1" t="inlineStr">
         <is>
           <t>Koi</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F167" s="1" t="inlineStr">
         <is>
           <t>UgyxBIUJHI_m871K0ch4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="1" t="inlineStr">
         <is>
           <t>トレードは良いこと何一つない</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="inlineStr">
+      <c r="D168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1" t="inlineStr">
         <is>
           <t>田中ヒカル</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F168" s="1" t="inlineStr">
         <is>
           <t>UgxrGaCiB6Scql80n0p4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="1" t="inlineStr">
         <is>
           <t>出来たら前場でのスキャが見たかったです。</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="1" t="inlineStr">
         <is>
           <t>深1</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" s="1" t="inlineStr">
         <is>
           <t>UgykNidEg8xdqDBVjw94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="1" t="inlineStr">
         <is>
           <t>厚い板が突然消える時ってテスタ並の個人か、機関の買いなんだろうな</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="inlineStr">
+      <c r="C170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1" t="inlineStr">
         <is>
           <t>【ひまにい党】社畜のゲーム実況Ch.【へブバン】</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F170" s="1" t="inlineStr">
         <is>
           <t>UgyAUXyQnLqRYuZH6_J4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="1" t="inlineStr">
         <is>
           <t>なんでテスタさんは松井証券をメインで使ってるんだろ</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="inlineStr">
+      <c r="D171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1" t="inlineStr">
         <is>
           <t>Takayuki K</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" s="1" t="inlineStr">
         <is>
           <t>UgxbiEXUS2UxAnTWT9F4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="1" t="inlineStr">
         <is>
           <t>この動画すごい😳😳😳</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="inlineStr">
+      <c r="C172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1" t="inlineStr">
         <is>
           <t>a a</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F172" s="1" t="inlineStr">
         <is>
           <t>UgwEo3s_3xPqDApx7fR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="1" t="inlineStr">
         <is>
           <t>鳥貴族は補助金41億円ももらったんだ！コロナ前の営業利益は1,681百万円</t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="inlineStr">
+      <c r="D173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1" t="inlineStr">
         <is>
           <t>関西輸入ノン大豆</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="F173" s="1" t="inlineStr">
         <is>
           <t>UgxO35wCej5o3pIBtox4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="1" t="inlineStr">
         <is>
           <t>初めてYouTube見ながらメモを取った。</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="C174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1" t="inlineStr">
         <is>
           <t>mild caster</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="1" t="inlineStr">
         <is>
           <t>UgzpYpkXLJk3D2cN5tB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="1" t="inlineStr">
         <is>
           <t>すっげぇや！</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="1" t="inlineStr">
         <is>
           <t>豆</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" s="1" t="inlineStr">
         <is>
           <t>Ugzo-Jigc_XvHTuQ5lt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="1" t="inlineStr">
         <is>
           <t>M1の賞金額よりでかい金額の負けだからラブリーどう思ってるんだろ</t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="inlineStr">
+      <c r="D176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1" t="inlineStr">
         <is>
           <t>てら</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="1" t="inlineStr">
         <is>
           <t>UgwXvg8MZn62O8hqaJl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="1" t="inlineStr">
         <is>
           <t>これはたしかに桃鉄だわwww</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="inlineStr">
+      <c r="D177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1" t="inlineStr">
         <is>
           <t>あずฅ•ω•ฅ</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F177" s="1" t="inlineStr">
         <is>
           <t>Ugzn99Mkj4YSt6Qs2Ft4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="1" t="inlineStr">
         <is>
           <t>野田さん、下落トレンドで入ってるやん笑笑</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="C178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1" t="inlineStr">
         <is>
           <t>Jogger is better than Walker. So I buy shoes.</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F178" s="1" t="inlineStr">
         <is>
           <t>UgzWRqlKFgzVHyWft-d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="1" t="inlineStr">
         <is>
           <t>テスタくんが出ないと視聴数が伸びない・・・・(笑)</t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="inlineStr">
+      <c r="D179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1" t="inlineStr">
         <is>
           <t>papy channel</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" s="1" t="inlineStr">
         <is>
           <t>Ugx6hJfO-av7AAqoXq14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="1" t="inlineStr">
         <is>
           <t>小芝居するテスタ先生が半端ない</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="inlineStr">
+      <c r="C180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1" t="inlineStr">
         <is>
           <t>T・T</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="1" t="inlineStr">
         <is>
           <t>UgwEGpJeMsqS9YxJrnl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="1" t="inlineStr">
         <is>
           <t>おもろい</t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="inlineStr">
+      <c r="D181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1" t="inlineStr">
         <is>
           <t>ディスでぃすお</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" s="1" t="inlineStr">
         <is>
           <t>UgxTzgnDEcuJ24BrIft4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="1" t="inlineStr">
         <is>
           <t>前場が見たかった</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="inlineStr">
+      <c r="D182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1" t="inlineStr">
         <is>
           <t>猫男爵</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" s="1" t="inlineStr">
         <is>
           <t>UgxfNDa-Rxdjmg7iYJx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="1" t="inlineStr">
         <is>
           <t>決算跨がせてるの草</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="inlineStr">
+      <c r="C183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1" t="inlineStr">
         <is>
           <t>BLACK RALY</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F183" s="1" t="inlineStr">
         <is>
           <t>Ugz_5tfIwGTr9zefs7h4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="1" t="inlineStr">
         <is>
           <t>50億で配当金生活充分出来そうだけど
 それはあんまり興味ないんだろうか</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
+      <c r="C184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E184" s="1" t="inlineStr">
         <is>
           <t>独身三十路リーマン</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" s="1" t="inlineStr">
         <is>
           <t>UgzbKRHIbyrSvn2bkWF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="1" t="inlineStr">
         <is>
           <t>これで破産者が何人生まれるか…</t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="inlineStr">
+      <c r="D185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1" t="inlineStr">
         <is>
           <t>FeAr Erth</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F185" s="1" t="inlineStr">
         <is>
           <t>UgzJ7lCK5UQgrnm9AeV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="1" t="inlineStr">
         <is>
           <t>このYou Tubeに出るのは仕事というより趣味なんだろうな
 本業やったほうが稼げるんだから</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="inlineStr">
+      <c r="D186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1" t="inlineStr">
         <is>
           <t>etty</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" s="1" t="inlineStr">
         <is>
           <t>UgzjCRRUJ1_ioAvbNrJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="1" t="inlineStr">
         <is>
           <t>プロのデイトレーダーってこんな板とにらめっこしてるのか・・・。まじで別のゲームだな。</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="inlineStr">
+      <c r="C187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1" t="inlineStr">
         <is>
           <t>Yukke T</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F187" s="1" t="inlineStr">
         <is>
           <t>Ugz7D1j0saZ3sI4bL394AaABAg</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="1" t="inlineStr">
         <is>
           <t>ネクソン今日めちゃめちゃ上がってたけど野田さんホールドしてたのかな？</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="inlineStr">
+      <c r="C188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1" t="inlineStr">
         <is>
           <t>カ</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F188" s="1" t="inlineStr">
         <is>
           <t>Ugw4Jay-tUUNDEZfNxx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="1" t="inlineStr">
         <is>
           <t>いやあ、リアルうぅうぅぅぅ～</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="inlineStr">
+      <c r="D189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1" t="inlineStr">
         <is>
           <t>さのすけ</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="1" t="inlineStr">
         <is>
           <t>UgzREXlVw2fefcWTpaF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="1" t="inlineStr">
         <is>
           <t>円の前に万があるか無いかw
 フォーリンナイフの肢をつかみたい👍</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="inlineStr">
+      <c r="C190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1" t="inlineStr">
         <is>
           <t>みなみ</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F190" s="1" t="inlineStr">
         <is>
           <t>UgwbdfqHAHafIBTyc8F4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
+      <c r="A191" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="1" t="inlineStr">
         <is>
           <t>少額からとか言ってるけど、少額からなんて相当なラッキーがないと増えないからな。</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
+      <c r="C191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E191" s="1" t="inlineStr">
         <is>
           <t>たかなし</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F191" s="1" t="inlineStr">
         <is>
           <t>UgxJrUPkqeiw0_gQKUx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
+      <c r="A192" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="1" t="inlineStr">
         <is>
           <t>松井証券さん、ナイス　キャスティング。</t>
         </is>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="inlineStr">
+      <c r="D192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1" t="inlineStr">
         <is>
           <t>coffee iced</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F192" s="1" t="inlineStr">
         <is>
           <t>UgywYy0fnF303OS7UQl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="1" t="inlineStr">
         <is>
           <t>金額がすごいけど、現金は３．４％しか保持してないのは投資としてかなりリスキーなやり方だと思うけど。。。</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
+      <c r="C193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="1" t="inlineStr">
         <is>
           <t>urdnju</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="1" t="inlineStr">
         <is>
           <t>Ugz039RvJb42cfIl9lB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="1" t="inlineStr">
         <is>
           <t>7000円のうなぎ高いの意味わからん　（笑）</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="inlineStr">
+      <c r="C194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1" t="inlineStr">
         <is>
           <t>続木護</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F194" s="1" t="inlineStr">
         <is>
           <t>Ugy5pbgPTPtQUu32QlB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="1" t="inlineStr">
         <is>
           <t>一瞬の判断が全てなんだ。こりゃデイトレなんか出来ない</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="inlineStr">
+      <c r="C195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1" t="inlineStr">
         <is>
           <t>SKYJOKER</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="F195" s="1" t="inlineStr">
         <is>
           <t>Ugwf-seQjyqzNcGvKNR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="1" t="inlineStr">
         <is>
           <t>ネクソン今日戻してる笑笑笑笑</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" t="inlineStr">
+      <c r="C196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1" t="inlineStr">
         <is>
           <t>H R</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F196" s="1" t="inlineStr">
         <is>
           <t>UgxL58lQwVDsLAHvIuV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="1" t="inlineStr">
         <is>
           <t>神</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="inlineStr">
+      <c r="C197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1" t="inlineStr">
         <is>
           <t>K K</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="1" t="inlineStr">
         <is>
           <t>UgyM2R0mK2iN0dccW9h4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="1" t="inlineStr">
         <is>
           <t>じゃ俺もデイトレやってみよ！
 って人増やして手数料ゲットだぜ‼︎</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="C198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1" t="inlineStr">
         <is>
           <t>あまのひろゆき</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="1" t="inlineStr">
         <is>
           <t>Ugx_GxEm8uQZ5ikb78l4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="1" t="inlineStr">
         <is>
           <t>これがリアル</t>
         </is>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="D199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1" t="inlineStr">
         <is>
           <t>5 Aiy</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F199" s="1" t="inlineStr">
         <is>
           <t>UgxmRSq0Tzfcvjl21OZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="1" t="inlineStr">
         <is>
           <t>もう次で最終回か</t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="inlineStr">
+      <c r="D200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1" t="inlineStr">
         <is>
           <t>Scin</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F200" s="1" t="inlineStr">
         <is>
           <t>UgwnMHnVL9YgpyF14AZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="1" t="inlineStr">
         <is>
           <t>友だちにも怖いヤツって居ますからねぇ…株怖い！</t>
         </is>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="inlineStr">
+      <c r="D201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1" t="inlineStr">
         <is>
           <t>ニャーゴ。</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F201" s="1" t="inlineStr">
         <is>
           <t>UgxmjQmlknzqt-pCCiB4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="1" t="inlineStr">
         <is>
           <t>なんていうアプリでやるんですか？</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" t="inlineStr">
+      <c r="C202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1" t="inlineStr">
         <is>
           <t>あめりか</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F202" s="1" t="inlineStr">
         <is>
           <t>UgwmKJg72lkfl8O8On94AaABAg</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="1" t="inlineStr">
         <is>
           <t>私が知ってるテスタさんは資産20億円だったのに、いつのまに？</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" t="inlineStr">
+      <c r="C203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="1" t="inlineStr">
         <is>
           <t>きたむらゆうじ</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F203" s="1" t="inlineStr">
         <is>
           <t>Ugyr00IZhQHD-5Pmych4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="1" t="inlineStr">
         <is>
           <t>ちょっと負けたぐらいでビービー言えないな、俺。</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" t="inlineStr">
+      <c r="C204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="1" t="inlineStr">
         <is>
           <t>あなたが大好きです</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="1" t="inlineStr">
         <is>
           <t>Ugx2_3LeUZP17WytgMN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="1" t="inlineStr">
         <is>
           <t>ほんまに桃鉄やなwww</t>
         </is>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="D205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" s="1" t="inlineStr">
         <is>
           <t>Kou Na</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F205" s="1" t="inlineStr">
         <is>
           <t>Ugz1SJJ7QGPqImLNLiV4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="1" t="inlineStr">
         <is>
           <t>この後ネクソンの株3000円まで上がったのね。野田さんまだもってるのかなー</t>
         </is>
       </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="inlineStr">
+      <c r="C206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1" t="inlineStr">
         <is>
           <t>やまもと</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" s="1" t="inlineStr">
         <is>
           <t>Ugwbra02O3aQE2Lhf4h4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="1" t="inlineStr">
         <is>
           <t>テスタくんなんか綺麗になってない？</t>
         </is>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="inlineStr">
+      <c r="D207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1" t="inlineStr">
         <is>
           <t>ゆき</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F207" s="1" t="inlineStr">
         <is>
           <t>UgxU4O35x3W2ds9-EY54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="1" t="inlineStr">
         <is>
           <t>5:10
 横横で買った人が戻ってくるの意味がわかりません。誰か教えてくれる方はいらっしゃいませんか？</t>
         </is>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E208" s="1" t="inlineStr">
         <is>
           <t>虎丸せがもう</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F208" s="1" t="inlineStr">
         <is>
           <t>UgygfLhhOzY2Fqo62qp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="1" t="inlineStr">
         <is>
           <t>能力はあるのに資金が少ない場合はどうしたらいいですか？(笑)
 投資してみませんか？</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
-      <c r="E209" t="inlineStr">
+      <c r="C209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" s="1" t="inlineStr">
         <is>
           <t>chan katokichi</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F209" s="1" t="inlineStr">
         <is>
           <t>UgwbkpMCL6M6TLmZL2R4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="1" t="inlineStr">
         <is>
           <t>10月8日に収録したのかな？</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="C210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="1" t="inlineStr">
         <is>
           <t>むー</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="1" t="inlineStr">
         <is>
           <t>UgyWS7zKWgGjMjZGW8d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="1" t="inlineStr">
         <is>
           <t>この入りのコントくだらないな でもそれがみたい人がここにいます</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="inlineStr">
+      <c r="C211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" s="1" t="inlineStr">
         <is>
           <t>だぼす会議</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="F211" s="1" t="inlineStr">
         <is>
           <t>Ugza3VK3SgjdH3t3sPZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="1" t="inlineStr">
         <is>
           <t>12:56
 左上の証券の人が引いてて草</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="inlineStr">
+      <c r="C212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" s="1" t="inlineStr">
         <is>
           <t>トイ Toy</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="1" t="inlineStr">
         <is>
           <t>UgzomeMb_Gg47UpfBMh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="1" t="inlineStr">
         <is>
           <t>テスタくんって絶対いい奴だよな
 普通こんなことまで公表しないと思う
@@ -6022,762 +6025,762 @@
 貴重な動画ありがとうございます</t>
         </is>
       </c>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" t="inlineStr">
+      <c r="C213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" s="1" t="inlineStr">
         <is>
           <t>kamosika3</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="F213" s="1" t="inlineStr">
         <is>
           <t>Ugx3gqmcsLge7jft7Cl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="1" t="inlineStr">
         <is>
           <t>5000株ずつコツコツって何だろ・・・</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="inlineStr">
+      <c r="D214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" s="1" t="inlineStr">
         <is>
           <t>中村典俊</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="F214" s="1" t="inlineStr">
         <is>
           <t>UgxIrpGA5gPOMhaA2Yd4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="1" t="inlineStr">
         <is>
           <t>プーチンが　パイプラインガス　４月１日からユーロ払いOKを出した　すぐにユーロ円買いました　上がってます</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
-      <c r="E215" t="inlineStr">
+      <c r="C215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" s="1" t="inlineStr">
         <is>
           <t>taka6065</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F215" s="1" t="inlineStr">
         <is>
           <t>Ugxni7XfpEoqC3vGj_p4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="1" t="inlineStr">
         <is>
           <t>テスタの真似しようとしてもカモになるだけ・・・</t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="C216" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216" t="inlineStr">
+      <c r="D216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" s="1" t="inlineStr">
         <is>
           <t>max devil</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="F216" s="1" t="inlineStr">
         <is>
           <t>UgxucIle3VGgc5thfzt4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="1" t="inlineStr">
         <is>
           <t>通販みたい？？</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" t="inlineStr">
+      <c r="C217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" s="1" t="inlineStr">
         <is>
           <t>Toyo</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F217" s="1" t="inlineStr">
         <is>
           <t>UgxyPvp476Kr_HakJdh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="1" t="inlineStr">
         <is>
           <t>ごめん、額がデカ過ぎてぜんぜん内容が入ってこない、、</t>
         </is>
       </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="inlineStr">
+      <c r="C218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" s="1" t="inlineStr">
         <is>
           <t>K-suke sus</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="1" t="inlineStr">
         <is>
           <t>Ugz1hL5gg54O7g7N2FR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="1" t="inlineStr">
         <is>
           <t>テスタくーん！！！</t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="C219" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="inlineStr">
+      <c r="D219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1" t="inlineStr">
         <is>
           <t>ゆりりん</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="F219" s="1" t="inlineStr">
         <is>
           <t>UgzroloWjgDQrZtfKEl4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="1" t="inlineStr">
         <is>
           <t>桃鉄だな確かにww</t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="D220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1" t="inlineStr">
         <is>
           <t>ドッペル・ゲンガー</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="1" t="inlineStr">
         <is>
           <t>UgwEYgmlOQnXHlQKS4x4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="1" t="inlineStr">
         <is>
           <t>まじで桃鉄の話</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="C221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1" t="inlineStr">
         <is>
           <t>REONARD OREO</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F221" s="1" t="inlineStr">
         <is>
           <t>UgwNTGKCU4Kil2TuyLF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="1" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="C222" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" s="1" t="inlineStr">
         <is>
           <t>ukkari hatibei</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" s="1" t="inlineStr">
         <is>
           <t>UgyoB4BjRWBXEW8sldZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="1" t="inlineStr">
         <is>
           <t>次回AJ参戦か</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" t="inlineStr">
+      <c r="C223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" s="1" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F223" s="1" t="inlineStr">
         <is>
           <t>UgwR-ObmyJ10ZH7Gsvx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="1" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0</v>
-      </c>
-      <c r="E224" t="inlineStr">
+      <c r="C224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1" t="inlineStr">
         <is>
           <t>うんぽこ</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F224" s="1" t="inlineStr">
         <is>
           <t>UgwA-c-wPvlrp6kDNad4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="1" t="inlineStr">
         <is>
           <t>元で一千万くらいでやらないとつまらんよな</t>
         </is>
       </c>
-      <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="inlineStr">
+      <c r="C225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" s="1" t="inlineStr">
         <is>
           <t>きたがわまさき</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="1" t="inlineStr">
         <is>
           <t>UgxsaDm9gww85fYgvQx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="1" t="inlineStr">
         <is>
           <t>16:40ゴールデンクロスしてる時点で2200円近辺なんよ。初心者が多いからと、適当なこと言わんといてもろて。</t>
         </is>
       </c>
-      <c r="C226" t="n">
+      <c r="C226" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" s="1" t="inlineStr">
         <is>
           <t>固めの桃</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F226" s="1" t="inlineStr">
         <is>
           <t>Ugz9V1k9DuTOlw1XX9d4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="1" t="inlineStr">
         <is>
           <t>桃鉄やんけww</t>
         </is>
       </c>
-      <c r="C227" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="C227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="1" t="inlineStr">
         <is>
           <t>うにうに</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" s="1" t="inlineStr">
         <is>
           <t>UgwzSQBzPHTqRiVq8MF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="1" t="inlineStr">
         <is>
           <t>なんで松井証券使ってるんだろ？
 理由があるのかな？</t>
         </is>
       </c>
-      <c r="C228" t="n">
+      <c r="C228" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D228" t="n">
-        <v>0</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="D228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1" t="inlineStr">
         <is>
           <t>ルパン賛成</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F228" s="1" t="inlineStr">
         <is>
           <t>Ugy1E7djWenNjcuWZt54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="1" t="inlineStr">
         <is>
           <t>日本の相場よえーなー笑笑
 右肩下がりやんけ笑笑</t>
         </is>
       </c>
-      <c r="C229" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" t="inlineStr">
+      <c r="C229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" s="1" t="inlineStr">
         <is>
           <t>Jogger is better than Walker. So I buy shoes.</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="F229" s="1" t="inlineStr">
         <is>
           <t>Ugzwsb-k7MSQIMIDjuN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="1" t="inlineStr">
         <is>
           <t>信用取引なんて素人には参考にならんやろ。</t>
         </is>
       </c>
-      <c r="C230" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
-      <c r="E230" t="inlineStr">
+      <c r="C230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" s="1" t="inlineStr">
         <is>
           <t>Jogger is better than Walker. So I buy shoes.</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F230" s="1" t="inlineStr">
         <is>
           <t>UgxieLgncS8lyZGXqZJ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="1" t="inlineStr">
         <is>
           <t>佐田さんガチで参考にしてそうで嫌だな</t>
         </is>
       </c>
-      <c r="C231" t="n">
+      <c r="C231" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E231" s="1" t="inlineStr">
         <is>
           <t>nikokin</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="1" t="inlineStr">
         <is>
           <t>UgwLBhb7AC6YIKb4wEN4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="1" t="inlineStr">
         <is>
           <t>税金分も入れてや</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" t="inlineStr">
+      <c r="C232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" s="1" t="inlineStr">
         <is>
           <t>大久保優作</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F232" s="1" t="inlineStr">
         <is>
           <t>UgxCsBMCn2kcUt7hsZ54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="1" t="inlineStr">
         <is>
           <t>むしろ負けた時のトレードがみたい</t>
         </is>
       </c>
-      <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="inlineStr">
+      <c r="C233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1" t="inlineStr">
         <is>
           <t>High 太Low</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="1" t="inlineStr">
         <is>
           <t>Ugy0o6xYHQU33IJjUtF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="1" t="inlineStr">
         <is>
           <t>桃鉄ww</t>
         </is>
       </c>
-      <c r="C234" t="n">
+      <c r="C234" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" s="1" t="inlineStr">
         <is>
           <t>mmm</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="1" t="inlineStr">
         <is>
           <t>UgwFRxiLDBUKf00ydJx4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="1" t="inlineStr">
         <is>
           <t>女の銭好きが溢れ出てて草</t>
         </is>
       </c>
-      <c r="C235" t="n">
+      <c r="C235" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E235" s="1" t="inlineStr">
         <is>
           <t>イクシマ</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F235" s="1" t="inlineStr">
         <is>
           <t>Ugw3eshXqGyLw12Xjh14AaABAg</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="1" t="inlineStr">
         <is>
           <t>テスタさんの話はすごくありがたかったけど、ゴールデンクロスが～って話しはあんま入れない方がいいんじゃないかなぁ・・・。
 ゴールデンクロスはただの結果論・・・。</t>
         </is>
       </c>
-      <c r="C236" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" s="1" t="inlineStr">
         <is>
           <t>。 oz</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F236" s="1" t="inlineStr">
         <is>
           <t>UgwgD8K2ep_v5RVbam54AaABAg</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="1" t="inlineStr">
         <is>
           <t>プロというかよく専門知識を持ってやっている人はいいけど、これって初心者用で松井証券がPRしてるんでしょ？
 初心者がこれに影響されて金突っ込んだらすぐギャンブルになるの目に見えてるのに。自分は企業として悪いイメージを持ってしまったなぁ。</t>
         </is>
       </c>
-      <c r="C237" t="n">
+      <c r="C237" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="1" t="inlineStr">
         <is>
           <t>Na Su</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="1" t="inlineStr">
         <is>
           <t>UgynVdnkIn9HzLX2QyF4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="1" t="inlineStr">
         <is>
           <t>ネク損</t>
         </is>
       </c>
-      <c r="C238" t="n">
-        <v>0</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0</v>
-      </c>
-      <c r="E238" t="inlineStr">
+      <c r="C238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" s="1" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F238" s="1" t="inlineStr">
         <is>
           <t>Ugy-AEozLs9xSoPOMDR4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="1" t="inlineStr">
         <is>
           <t>受給の発音おかしくない？？</t>
         </is>
       </c>
-      <c r="C239" t="n">
+      <c r="C239" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E239" s="1" t="inlineStr">
         <is>
           <t>かやくだどん</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="F239" s="1" t="inlineStr">
         <is>
           <t>UgwuwGpaCC7sRWRwMsZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="1" t="inlineStr">
         <is>
           <t>トレードなんて糞ようだ</t>
         </is>
       </c>
-      <c r="C240" t="n">
-        <v>0</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0</v>
-      </c>
-      <c r="E240" t="inlineStr">
+      <c r="C240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" s="1" t="inlineStr">
         <is>
           <t>田中ヒカル</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F240" s="1" t="inlineStr">
         <is>
           <t>UgzNXxZmXyvFptus6xZ4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="1" t="inlineStr">
         <is>
           <t>これも演出だろｗ
 カカムーチョの株買って翻弄とかが見たかったわｗ
 しかたない松井証券の商売だもんな</t>
         </is>
       </c>
-      <c r="C241" t="n">
-        <v>0</v>
-      </c>
-      <c r="D241" t="n">
+      <c r="C241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E241" s="1" t="inlineStr">
         <is>
           <t>鯱</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
+      <c r="F241" s="1" t="inlineStr">
         <is>
           <t>Ugw7coyeddec8-Ia6Dp4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="1" t="inlineStr">
         <is>
           <t>自分の金を投資してるのに番組の指示で売れないのはあかんやろ。
 投資を広める番組としてその辺はしっかりして欲しい。
@@ -6785,44 +6788,44 @@
 （もちろん、彼らにとって2万円はちっぽけかもしれませんが）</t>
         </is>
       </c>
-      <c r="C242" t="n">
+      <c r="C242" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E242" s="1" t="inlineStr">
         <is>
           <t>JUMBO</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F242" s="1" t="inlineStr">
         <is>
           <t>UgyVFgFhPCq9Xx0C1zh4AaABAg</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="1" t="inlineStr">
         <is>
           <t>テスタはもう勝てないからユーチューバーにシフトしている。</t>
         </is>
       </c>
-      <c r="C243" t="n">
-        <v>0</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="inlineStr">
+      <c r="C243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="1" t="inlineStr">
         <is>
           <t>チビチロ</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="1" t="inlineStr">
         <is>
           <t>Ugy33zxCsBxI5mJOOAZ4AaABAg</t>
         </is>
